--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1701321.279853937</v>
+        <v>1715866.727189073</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5180438.595118579</v>
+        <v>5180438.595118578</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4689935.220254062</v>
+        <v>4689935.220254064</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9144530.801527319</v>
+        <v>9144530.801527321</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>82.96396779500064</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6957123392361</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.086718825436188</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>69.99226724763534</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="F5" t="n">
-        <v>25.17354161800006</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>190.9141499935689</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.8943107071521</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>75.08620022294134</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>102.9270600461948</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.88431827298079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>108.1960350243787</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.1341749248157</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>88.73176363078355</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>57.38568932129458</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>299.7312046355602</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I12" t="n">
-        <v>31.22351363742329</v>
+        <v>31.2235136374233</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>138.6778922707583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.5744636018854</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>92.47280779264534</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>34.42523159540877</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>183.0248913641952</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I15" t="n">
-        <v>31.2235136374233</v>
+        <v>31.22351363742331</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>75.44520048551584</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>76.89277607066063</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.5744636018854</v>
       </c>
       <c r="H16" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H17" t="n">
-        <v>100.7322747654331</v>
+        <v>297.2509708253075</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I18" t="n">
-        <v>31.2235136374233</v>
+        <v>31.22351363742331</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>153.0286107366191</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>201.4913482148959</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>412.1448586242818</v>
@@ -2099,7 +2099,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I20" t="n">
-        <v>88.73176363078356</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T20" t="n">
-        <v>34.60031977063023</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U20" t="n">
         <v>251.0930225965682</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>13.36694532946496</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I21" t="n">
-        <v>31.2235136374233</v>
+        <v>31.22351363742331</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>43.70870874621213</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2417648606778</v>
+        <v>189.345968639404</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>155.4989596071413</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I23" t="n">
-        <v>88.73176363078356</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T23" t="n">
         <v>209.272234719421</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>259.0659910219992</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I24" t="n">
-        <v>31.2235136374233</v>
+        <v>31.22351363742331</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.5744636018854</v>
       </c>
       <c r="H25" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>49.2101004941234</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.47280779264511</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I26" t="n">
-        <v>88.73176363078356</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T26" t="n">
         <v>209.272234719421</v>
@@ -2612,10 +2612,10 @@
         <v>251.0930225965682</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>189.2491400445784</v>
       </c>
       <c r="W26" t="n">
-        <v>259.0659910219992</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I27" t="n">
-        <v>31.2235136374233</v>
+        <v>31.22351363742331</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.57001757851995</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>92.47280779264489</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>412.1448586242818</v>
       </c>
       <c r="H29" t="n">
-        <v>289.1715275878972</v>
+        <v>168.6310564992598</v>
       </c>
       <c r="I29" t="n">
-        <v>88.73176363078356</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U29" t="n">
         <v>251.0930225965682</v>
@@ -2889,7 +2889,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I30" t="n">
-        <v>31.2235136374233</v>
+        <v>31.22351363742331</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22.40907712589591</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I31" t="n">
         <v>112.8519829023073</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.8932039229227</v>
+        <v>55.11968623982622</v>
       </c>
       <c r="U31" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3047,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I32" t="n">
-        <v>88.73176363078356</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>137.0599043609255</v>
+        <v>119.0972570240065</v>
       </c>
       <c r="T32" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.0930225965682</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>159.0030565997133</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>95.91732850283915</v>
       </c>
       <c r="I33" t="n">
-        <v>31.2235136374233</v>
+        <v>31.22351363742331</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>113.6016919952446</v>
       </c>
       <c r="S34" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2417648606778</v>
+        <v>284.8306197001163</v>
       </c>
       <c r="V34" t="n">
-        <v>95.73022756056429</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>412.1448586242818</v>
@@ -3284,7 +3284,7 @@
         <v>307.1341749248157</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.485550653011077</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>230.8498106763973</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>63.21864925310709</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1003911533595</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.1341749248157</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>86.9333655988945</v>
+        <v>97.64226118004368</v>
       </c>
       <c r="U38" t="n">
         <v>251.0930225965682</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>23.26870183767755</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>286.2417648606778</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.95539688631251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>343.315224618371</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>137.0599043609255</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>7.264761587445641</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3913,10 +3913,10 @@
         <v>166.5744636018854</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.8932039229227</v>
+        <v>122.776797748409</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>15.66282288560494</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>231.7755995929786</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>305.0243884284978</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4056,25 +4056,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>32.69488591743003</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.95087824132504</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.22351363742331</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>140.2993290820219</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>193.3543979231454</v>
       </c>
       <c r="U45" t="n">
         <v>225.8302232544513</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>199.425490329033</v>
+        <v>118.3104664614084</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>753.253405673024</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>753.253405673024</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>509.8046290289238</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>509.8046290289238</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>509.8046290289238</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>509.8046290289238</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4416,13 +4416,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>893.3578956645399</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>893.3578956645399</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>691.171301023306</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>462.9476827596951</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>227.7955745279523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>227.7955745279523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="4">
@@ -4516,13 +4516,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353.7257600495809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>521.941097069649</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.941097069649</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4829,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>489.9572726784918</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="C9" t="n">
-        <v>315.5042433973647</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D9" t="n">
-        <v>166.5698337361135</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X9" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y9" t="n">
-        <v>658.1726096985599</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>867.8655957443175</v>
+        <v>778.9212888875594</v>
       </c>
       <c r="C11" t="n">
-        <v>867.8655957443175</v>
+        <v>409.9587719471477</v>
       </c>
       <c r="D11" t="n">
-        <v>867.8655957443175</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="E11" t="n">
-        <v>867.8655957443175</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="F11" t="n">
-        <v>867.8655957443175</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="G11" t="n">
-        <v>451.5576577399924</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="H11" t="n">
-        <v>141.3211174118957</v>
+        <v>51.69307334039718</v>
       </c>
       <c r="I11" t="n">
         <v>51.69307334039718</v>
@@ -5042,16 +5042,16 @@
         <v>137.7984411364135</v>
       </c>
       <c r="K11" t="n">
-        <v>317.5865851946411</v>
+        <v>317.586585194641</v>
       </c>
       <c r="L11" t="n">
-        <v>957.2883677820562</v>
+        <v>938.9147196454494</v>
       </c>
       <c r="M11" t="n">
-        <v>1278.196539662667</v>
+        <v>1259.822891526061</v>
       </c>
       <c r="N11" t="n">
-        <v>1608.911149642304</v>
+        <v>1899.524674113476</v>
       </c>
       <c r="O11" t="n">
         <v>2198.473841107554</v>
@@ -5069,22 +5069,22 @@
         <v>2584.653667019859</v>
       </c>
       <c r="T11" t="n">
-        <v>2373.267571343676</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="U11" t="n">
-        <v>2315.302228594894</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="V11" t="n">
-        <v>1984.239341251323</v>
+        <v>2281.894874458687</v>
       </c>
       <c r="W11" t="n">
-        <v>1631.470685981209</v>
+        <v>1929.126219188573</v>
       </c>
       <c r="X11" t="n">
-        <v>1258.004927720129</v>
+        <v>1555.660460927493</v>
       </c>
       <c r="Y11" t="n">
-        <v>867.8655957443175</v>
+        <v>1165.521128951681</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>180.1181664113697</v>
       </c>
       <c r="H12" t="n">
-        <v>83.2319760044611</v>
+        <v>83.23197600446112</v>
       </c>
       <c r="I12" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J12" t="n">
-        <v>84.15899356188901</v>
+        <v>208.9891185488937</v>
       </c>
       <c r="K12" t="n">
-        <v>217.8032470410341</v>
+        <v>342.6333720280388</v>
       </c>
       <c r="L12" t="n">
-        <v>443.8269797241531</v>
+        <v>935.7890465615824</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.236822749529</v>
+        <v>1373.514963703066</v>
       </c>
       <c r="N12" t="n">
-        <v>1363.254606552352</v>
+        <v>1678.53274750589</v>
       </c>
       <c r="O12" t="n">
-        <v>2002.956389139767</v>
+        <v>2318.234530093305</v>
       </c>
       <c r="P12" t="n">
         <v>2505.015644039155</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.0816086833103</v>
+        <v>1098.942377361043</v>
       </c>
       <c r="C13" t="n">
-        <v>510.1454257554034</v>
+        <v>930.0061944331358</v>
       </c>
       <c r="D13" t="n">
-        <v>360.0287863430676</v>
+        <v>779.8895550208</v>
       </c>
       <c r="E13" t="n">
-        <v>219.9501072816956</v>
+        <v>631.9764614384069</v>
       </c>
       <c r="F13" t="n">
-        <v>219.9501072816956</v>
+        <v>485.0865139404966</v>
       </c>
       <c r="G13" t="n">
-        <v>51.69307334039718</v>
+        <v>316.8294799991982</v>
       </c>
       <c r="H13" t="n">
-        <v>51.69307334039718</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="I13" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J13" t="n">
-        <v>58.41367237472895</v>
+        <v>58.41367237472893</v>
       </c>
       <c r="K13" t="n">
         <v>199.2945177881705</v>
       </c>
       <c r="L13" t="n">
-        <v>435.0999309428872</v>
+        <v>435.0999309428871</v>
       </c>
       <c r="M13" t="n">
-        <v>694.1127998504564</v>
+        <v>694.1127998504562</v>
       </c>
       <c r="N13" t="n">
-        <v>952.4015380794842</v>
+        <v>952.401538079484</v>
       </c>
       <c r="O13" t="n">
         <v>1174.956697563204</v>
@@ -5227,22 +5227,22 @@
         <v>1373.99771874951</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.863169332416</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="U13" t="n">
-        <v>860.73007351355</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="V13" t="n">
-        <v>860.73007351355</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="W13" t="n">
-        <v>860.73007351355</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="X13" t="n">
-        <v>860.73007351355</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="Y13" t="n">
-        <v>860.73007351355</v>
+        <v>1280.590842191282</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1623.040867339324</v>
+        <v>1105.983564873489</v>
       </c>
       <c r="C14" t="n">
-        <v>1623.040867339324</v>
+        <v>1105.983564873489</v>
       </c>
       <c r="D14" t="n">
-        <v>1264.775168732574</v>
+        <v>747.7178662667382</v>
       </c>
       <c r="E14" t="n">
-        <v>878.9869161343297</v>
+        <v>361.9296136684939</v>
       </c>
       <c r="F14" t="n">
-        <v>468.0010113447222</v>
+        <v>361.9296136684939</v>
       </c>
       <c r="G14" t="n">
-        <v>51.69307334039718</v>
+        <v>361.9296136684939</v>
       </c>
       <c r="H14" t="n">
         <v>51.69307334039718</v>
@@ -5279,19 +5279,19 @@
         <v>137.7984411364135</v>
       </c>
       <c r="K14" t="n">
-        <v>638.4905436400941</v>
+        <v>317.5865851946409</v>
       </c>
       <c r="L14" t="n">
-        <v>1278.192326227509</v>
+        <v>957.288367782056</v>
       </c>
       <c r="M14" t="n">
-        <v>1599.10049810812</v>
+        <v>1278.196539662667</v>
       </c>
       <c r="N14" t="n">
-        <v>1929.815108087757</v>
+        <v>1608.911149642304</v>
       </c>
       <c r="O14" t="n">
-        <v>2228.764275081836</v>
+        <v>2246.485863124605</v>
       </c>
       <c r="P14" t="n">
         <v>2467.131059861675</v>
@@ -5309,19 +5309,19 @@
         <v>2584.653667019859</v>
       </c>
       <c r="U14" t="n">
-        <v>2584.653667019859</v>
+        <v>2549.880705812375</v>
       </c>
       <c r="V14" t="n">
-        <v>2584.653667019859</v>
+        <v>2218.817818468804</v>
       </c>
       <c r="W14" t="n">
-        <v>2584.653667019859</v>
+        <v>1866.04916319869</v>
       </c>
       <c r="X14" t="n">
-        <v>2399.780039379258</v>
+        <v>1492.58340493761</v>
       </c>
       <c r="Y14" t="n">
-        <v>2009.640707403446</v>
+        <v>1492.58340493761</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>946.3017627768163</v>
+        <v>946.3017627768157</v>
       </c>
       <c r="C15" t="n">
-        <v>771.8487334956893</v>
+        <v>771.8487334956887</v>
       </c>
       <c r="D15" t="n">
-        <v>622.9143238344379</v>
+        <v>622.9143238344375</v>
       </c>
       <c r="E15" t="n">
-        <v>463.6768688289824</v>
+        <v>463.676868828982</v>
       </c>
       <c r="F15" t="n">
-        <v>317.1423108558674</v>
+        <v>317.142310855867</v>
       </c>
       <c r="G15" t="n">
-        <v>180.1181664113697</v>
+        <v>180.1181664113694</v>
       </c>
       <c r="H15" t="n">
-        <v>83.23197600446112</v>
+        <v>83.23197600446113</v>
       </c>
       <c r="I15" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J15" t="n">
-        <v>84.15899356188901</v>
+        <v>208.9891185488937</v>
       </c>
       <c r="K15" t="n">
-        <v>217.8032470410341</v>
+        <v>342.6333720280387</v>
       </c>
       <c r="L15" t="n">
-        <v>810.9589215745776</v>
+        <v>568.6571047111577</v>
       </c>
       <c r="M15" t="n">
-        <v>1450.660704161993</v>
+        <v>1038.830964918475</v>
       </c>
       <c r="N15" t="n">
-        <v>2066.121634347913</v>
+        <v>1678.53274750589</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.933521267836</v>
+        <v>2318.234530093305</v>
       </c>
       <c r="P15" t="n">
-        <v>2509.714635213686</v>
+        <v>2505.015644039155</v>
       </c>
       <c r="Q15" t="n">
-        <v>2584.653667019859</v>
+        <v>2579.954675845328</v>
       </c>
       <c r="R15" t="n">
         <v>2584.653667019859</v>
@@ -5391,10 +5391,10 @@
         <v>2019.518363727315</v>
       </c>
       <c r="V15" t="n">
-        <v>1784.366255495573</v>
+        <v>1784.366255495572</v>
       </c>
       <c r="W15" t="n">
-        <v>1530.128898767371</v>
+        <v>1530.12889876737</v>
       </c>
       <c r="X15" t="n">
         <v>1322.277398561838</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.5671238777227</v>
+        <v>502.878192131125</v>
       </c>
       <c r="C16" t="n">
-        <v>743.5671238777227</v>
+        <v>333.9420092032181</v>
       </c>
       <c r="D16" t="n">
-        <v>665.8976530992776</v>
+        <v>333.9420092032181</v>
       </c>
       <c r="E16" t="n">
-        <v>517.9845595168845</v>
+        <v>333.9420092032181</v>
       </c>
       <c r="F16" t="n">
-        <v>371.0946120189741</v>
+        <v>333.9420092032181</v>
       </c>
       <c r="G16" t="n">
-        <v>202.8375780776757</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="H16" t="n">
-        <v>51.69307334039718</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="I16" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J16" t="n">
-        <v>58.41367237472893</v>
+        <v>58.41367237472892</v>
       </c>
       <c r="K16" t="n">
-        <v>199.2945177881705</v>
+        <v>199.2945177881704</v>
       </c>
       <c r="L16" t="n">
         <v>435.0999309428871</v>
       </c>
       <c r="M16" t="n">
-        <v>694.1127998504562</v>
+        <v>694.1127998504561</v>
       </c>
       <c r="N16" t="n">
-        <v>952.401538079484</v>
+        <v>952.4015380794838</v>
       </c>
       <c r="O16" t="n">
         <v>1174.956697563204</v>
@@ -5458,28 +5458,28 @@
         <v>1373.99771874951</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.99771874951</v>
+        <v>1259.248534915929</v>
       </c>
       <c r="S16" t="n">
-        <v>1373.99771874951</v>
+        <v>1057.904502971798</v>
       </c>
       <c r="T16" t="n">
-        <v>1373.99771874951</v>
+        <v>833.7699535547047</v>
       </c>
       <c r="U16" t="n">
-        <v>1373.99771874951</v>
+        <v>833.7699535547047</v>
       </c>
       <c r="V16" t="n">
-        <v>1373.99771874951</v>
+        <v>579.0854653488178</v>
       </c>
       <c r="W16" t="n">
-        <v>1373.99771874951</v>
+        <v>579.0854653488178</v>
       </c>
       <c r="X16" t="n">
-        <v>1146.008167851493</v>
+        <v>579.0854653488178</v>
       </c>
       <c r="Y16" t="n">
-        <v>925.2155887079624</v>
+        <v>579.0854653488178</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>539.2310984289779</v>
+        <v>1137.217034169283</v>
       </c>
       <c r="C17" t="n">
-        <v>539.2310984289779</v>
+        <v>768.2545172288712</v>
       </c>
       <c r="D17" t="n">
-        <v>539.2310984289779</v>
+        <v>768.2545172288712</v>
       </c>
       <c r="E17" t="n">
-        <v>153.4428458307337</v>
+        <v>768.2545172288712</v>
       </c>
       <c r="F17" t="n">
-        <v>153.4428458307337</v>
+        <v>768.2545172288712</v>
       </c>
       <c r="G17" t="n">
-        <v>153.4428458307337</v>
+        <v>351.9465792245462</v>
       </c>
       <c r="H17" t="n">
         <v>51.69307334039718</v>
@@ -5516,25 +5516,25 @@
         <v>137.7984411364135</v>
       </c>
       <c r="K17" t="n">
-        <v>317.586585194641</v>
+        <v>317.5865851946409</v>
       </c>
       <c r="L17" t="n">
-        <v>957.2883677820561</v>
+        <v>938.9147196454496</v>
       </c>
       <c r="M17" t="n">
-        <v>1278.196539662667</v>
+        <v>1259.822891526061</v>
       </c>
       <c r="N17" t="n">
-        <v>1608.911149642304</v>
+        <v>1899.524674113476</v>
       </c>
       <c r="O17" t="n">
-        <v>2246.485863124605</v>
+        <v>2198.473841107555</v>
       </c>
       <c r="P17" t="n">
-        <v>2467.131059861675</v>
+        <v>2419.119037844624</v>
       </c>
       <c r="Q17" t="n">
-        <v>2584.653667019859</v>
+        <v>2536.641645002809</v>
       </c>
       <c r="R17" t="n">
         <v>2584.653667019859</v>
@@ -5543,22 +5543,22 @@
         <v>2584.653667019859</v>
       </c>
       <c r="T17" t="n">
-        <v>2373.267571343676</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="U17" t="n">
-        <v>2373.267571343676</v>
+        <v>2584.653667019859</v>
       </c>
       <c r="V17" t="n">
-        <v>2042.204684000105</v>
+        <v>2253.590779676289</v>
       </c>
       <c r="W17" t="n">
-        <v>1689.436028729991</v>
+        <v>1900.822124406174</v>
       </c>
       <c r="X17" t="n">
-        <v>1315.970270468911</v>
+        <v>1527.356366145095</v>
       </c>
       <c r="Y17" t="n">
-        <v>925.8309384930997</v>
+        <v>1137.217034169283</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>946.3017627768158</v>
+        <v>946.3017627768163</v>
       </c>
       <c r="C18" t="n">
-        <v>771.8487334956889</v>
+        <v>771.8487334956893</v>
       </c>
       <c r="D18" t="n">
-        <v>622.9143238344375</v>
+        <v>622.9143238344379</v>
       </c>
       <c r="E18" t="n">
-        <v>463.6768688289819</v>
+        <v>463.6768688289824</v>
       </c>
       <c r="F18" t="n">
-        <v>317.142310855867</v>
+        <v>317.1423108558674</v>
       </c>
       <c r="G18" t="n">
-        <v>180.1181664113697</v>
+        <v>180.1181664113694</v>
       </c>
       <c r="H18" t="n">
-        <v>83.23197600446112</v>
+        <v>83.23197600446113</v>
       </c>
       <c r="I18" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J18" t="n">
-        <v>84.15899356188901</v>
+        <v>208.9891185488937</v>
       </c>
       <c r="K18" t="n">
-        <v>217.8032470410341</v>
+        <v>342.6333720280387</v>
       </c>
       <c r="L18" t="n">
-        <v>443.8269797241531</v>
+        <v>568.6571047111577</v>
       </c>
       <c r="M18" t="n">
-        <v>1083.528762311568</v>
+        <v>1043.529956093006</v>
       </c>
       <c r="N18" t="n">
         <v>1683.231738680421</v>
       </c>
       <c r="O18" t="n">
-        <v>2322.933521267836</v>
+        <v>2322.933521267837</v>
       </c>
       <c r="P18" t="n">
         <v>2509.714635213686</v>
@@ -5628,7 +5628,7 @@
         <v>2019.518363727315</v>
       </c>
       <c r="V18" t="n">
-        <v>1784.366255495572</v>
+        <v>1784.366255495573</v>
       </c>
       <c r="W18" t="n">
         <v>1530.128898767371</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.69307334039718</v>
+        <v>1084.580548712549</v>
       </c>
       <c r="C19" t="n">
-        <v>51.69307334039718</v>
+        <v>930.0061944331358</v>
       </c>
       <c r="D19" t="n">
-        <v>51.69307334039718</v>
+        <v>779.8895550208</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69307334039718</v>
+        <v>631.9764614384069</v>
       </c>
       <c r="F19" t="n">
-        <v>51.69307334039718</v>
+        <v>485.0865139404966</v>
       </c>
       <c r="G19" t="n">
-        <v>51.69307334039718</v>
+        <v>316.8294799991982</v>
       </c>
       <c r="H19" t="n">
-        <v>51.69307334039718</v>
+        <v>165.6849752619197</v>
       </c>
       <c r="I19" t="n">
         <v>51.69307334039718</v>
       </c>
       <c r="J19" t="n">
-        <v>58.41367237472893</v>
+        <v>58.41367237472892</v>
       </c>
       <c r="K19" t="n">
-        <v>199.2945177881705</v>
+        <v>199.2945177881704</v>
       </c>
       <c r="L19" t="n">
         <v>435.0999309428871</v>
       </c>
       <c r="M19" t="n">
-        <v>694.1127998504562</v>
+        <v>694.1127998504561</v>
       </c>
       <c r="N19" t="n">
-        <v>952.401538079484</v>
+        <v>952.4015380794838</v>
       </c>
       <c r="O19" t="n">
         <v>1174.956697563204</v>
@@ -5695,28 +5695,28 @@
         <v>1373.99771874951</v>
       </c>
       <c r="R19" t="n">
-        <v>1259.248534915929</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="S19" t="n">
-        <v>1057.904502971799</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="T19" t="n">
-        <v>833.7699535547049</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="U19" t="n">
-        <v>544.6368577358385</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="V19" t="n">
-        <v>341.1102433773578</v>
+        <v>1373.99771874951</v>
       </c>
       <c r="W19" t="n">
-        <v>51.69307334039718</v>
+        <v>1084.580548712549</v>
       </c>
       <c r="X19" t="n">
-        <v>51.69307334039718</v>
+        <v>1084.580548712549</v>
       </c>
       <c r="Y19" t="n">
-        <v>51.69307334039718</v>
+        <v>1084.580548712549</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2004.257130118861</v>
+        <v>2415.243034908469</v>
       </c>
       <c r="C20" t="n">
-        <v>1635.294613178449</v>
+        <v>2046.280517968057</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.028914571699</v>
+        <v>1688.014819361307</v>
       </c>
       <c r="E20" t="n">
-        <v>891.2406619734547</v>
+        <v>1302.226566763062</v>
       </c>
       <c r="F20" t="n">
         <v>891.2406619734547</v>
@@ -5747,55 +5747,55 @@
         <v>164.696183641033</v>
       </c>
       <c r="I20" t="n">
-        <v>75.06813956953441</v>
+        <v>75.0681395695344</v>
       </c>
       <c r="J20" t="n">
-        <v>328.5791563859038</v>
+        <v>161.1735073655507</v>
       </c>
       <c r="K20" t="n">
-        <v>536.2537380289443</v>
+        <v>536.2537380289435</v>
       </c>
       <c r="L20" t="n">
-        <v>1209.683192951254</v>
+        <v>1209.683192951253</v>
       </c>
       <c r="M20" t="n">
-        <v>1975.609762989769</v>
+        <v>1975.609762989768</v>
       </c>
       <c r="N20" t="n">
-        <v>2739.29782813727</v>
+        <v>2739.297828137269</v>
       </c>
       <c r="O20" t="n">
-        <v>3415.239174581467</v>
+        <v>3415.239174581466</v>
       </c>
       <c r="P20" t="n">
-        <v>3635.884371318537</v>
+        <v>3635.884371318536</v>
       </c>
       <c r="Q20" t="n">
-        <v>3753.406978476721</v>
+        <v>3753.40697847672</v>
       </c>
       <c r="R20" t="n">
-        <v>3753.406978476721</v>
+        <v>3753.40697847672</v>
       </c>
       <c r="S20" t="n">
-        <v>3753.406978476721</v>
+        <v>3614.962630637401</v>
       </c>
       <c r="T20" t="n">
-        <v>3718.457160526589</v>
+        <v>3403.576534961218</v>
       </c>
       <c r="U20" t="n">
-        <v>3464.82784477248</v>
+        <v>3149.947219207109</v>
       </c>
       <c r="V20" t="n">
-        <v>3133.764957428909</v>
+        <v>2818.884331863538</v>
       </c>
       <c r="W20" t="n">
-        <v>2780.996302158795</v>
+        <v>2805.382366884281</v>
       </c>
       <c r="X20" t="n">
-        <v>2780.996302158795</v>
+        <v>2805.382366884281</v>
       </c>
       <c r="Y20" t="n">
-        <v>2390.856970182983</v>
+        <v>2415.243034908469</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>106.6070422335983</v>
       </c>
       <c r="I21" t="n">
-        <v>75.06813956953441</v>
+        <v>75.0681395695344</v>
       </c>
       <c r="J21" t="n">
         <v>107.5340597910262</v>
       </c>
       <c r="K21" t="n">
-        <v>241.1783132701713</v>
+        <v>241.1783132701712</v>
       </c>
       <c r="L21" t="n">
-        <v>467.2020459532903</v>
+        <v>467.2020459532902</v>
       </c>
       <c r="M21" t="n">
         <v>1211.365962428518</v>
       </c>
       <c r="N21" t="n">
-        <v>1990.93269683146</v>
+        <v>1699.573004493087</v>
       </c>
       <c r="O21" t="n">
         <v>2346.308587496973</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1380309169333</v>
+        <v>688.9240029900805</v>
       </c>
       <c r="C22" t="n">
         <v>519.9878200621736</v>
@@ -5896,31 +5896,31 @@
         <v>221.9580870674448</v>
       </c>
       <c r="F22" t="n">
-        <v>75.06813956953441</v>
+        <v>75.0681395695344</v>
       </c>
       <c r="G22" t="n">
-        <v>75.06813956953441</v>
+        <v>75.0681395695344</v>
       </c>
       <c r="H22" t="n">
-        <v>75.06813956953441</v>
+        <v>75.0681395695344</v>
       </c>
       <c r="I22" t="n">
-        <v>75.06813956953441</v>
+        <v>75.0681395695344</v>
       </c>
       <c r="J22" t="n">
-        <v>81.78873860386616</v>
+        <v>81.78873860386614</v>
       </c>
       <c r="K22" t="n">
-        <v>222.6695840173077</v>
+        <v>222.6695840173076</v>
       </c>
       <c r="L22" t="n">
-        <v>458.4749971720244</v>
+        <v>458.4749971720242</v>
       </c>
       <c r="M22" t="n">
-        <v>717.4878660795935</v>
+        <v>717.4878660795932</v>
       </c>
       <c r="N22" t="n">
-        <v>975.7766043086212</v>
+        <v>975.776604308621</v>
       </c>
       <c r="O22" t="n">
         <v>1198.331763792341</v>
@@ -5932,28 +5932,28 @@
         <v>1397.372784978647</v>
       </c>
       <c r="R22" t="n">
-        <v>1397.372784978647</v>
+        <v>1282.623601145066</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.372784978647</v>
+        <v>1282.623601145066</v>
       </c>
       <c r="T22" t="n">
-        <v>1397.372784978647</v>
+        <v>1282.623601145066</v>
       </c>
       <c r="U22" t="n">
-        <v>1108.239689159781</v>
+        <v>1091.36504696385</v>
       </c>
       <c r="V22" t="n">
-        <v>853.5552009538939</v>
+        <v>1091.36504696385</v>
       </c>
       <c r="W22" t="n">
-        <v>564.1380309169333</v>
+        <v>1091.36504696385</v>
       </c>
       <c r="X22" t="n">
-        <v>564.1380309169333</v>
+        <v>1091.36504696385</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.1380309169333</v>
+        <v>870.5724678203202</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>92.81920293118269</v>
       </c>
       <c r="J23" t="n">
-        <v>346.3302197475523</v>
+        <v>346.3302197475532</v>
       </c>
       <c r="K23" t="n">
-        <v>847.0223222512328</v>
+        <v>847.0223222512336</v>
       </c>
       <c r="L23" t="n">
-        <v>1520.451777173542</v>
+        <v>1520.451777173543</v>
       </c>
       <c r="M23" t="n">
-        <v>2286.378347212058</v>
+        <v>2286.378347212059</v>
       </c>
       <c r="N23" t="n">
-        <v>3050.066412359559</v>
+        <v>3050.06641235956</v>
       </c>
       <c r="O23" t="n">
         <v>3726.007758803756</v>
@@ -6014,25 +6014,25 @@
         <v>4640.960146559134</v>
       </c>
       <c r="S23" t="n">
-        <v>4640.960146559134</v>
+        <v>4502.515798719815</v>
       </c>
       <c r="T23" t="n">
-        <v>4429.574050882951</v>
+        <v>4291.129703043633</v>
       </c>
       <c r="U23" t="n">
-        <v>4175.944735128842</v>
+        <v>4037.500387289523</v>
       </c>
       <c r="V23" t="n">
-        <v>3844.881847785271</v>
+        <v>3706.437499945952</v>
       </c>
       <c r="W23" t="n">
-        <v>3583.19902857113</v>
+        <v>3353.668844675838</v>
       </c>
       <c r="X23" t="n">
-        <v>3209.733270310051</v>
+        <v>2980.203086414758</v>
       </c>
       <c r="Y23" t="n">
-        <v>2819.593938334239</v>
+        <v>2590.063754438946</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4278923676012</v>
+        <v>3002.608242316091</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9748630864742</v>
+        <v>2828.155213034964</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0404534252229</v>
+        <v>2679.220803373713</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8029984197675</v>
+        <v>2519.983348368257</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2684404466525</v>
+        <v>2373.448790395142</v>
       </c>
       <c r="G24" t="n">
-        <v>221.2442960021549</v>
+        <v>2236.424645950644</v>
       </c>
       <c r="H24" t="n">
-        <v>124.3581055952466</v>
+        <v>2139.538455543736</v>
       </c>
       <c r="I24" t="n">
-        <v>92.81920293118269</v>
+        <v>2107.999552879672</v>
       </c>
       <c r="J24" t="n">
-        <v>125.2851231526745</v>
+        <v>2140.465473101164</v>
       </c>
       <c r="K24" t="n">
-        <v>258.9293766318196</v>
+        <v>2274.109726580309</v>
       </c>
       <c r="L24" t="n">
-        <v>852.0850511653632</v>
+        <v>2500.133459263428</v>
       </c>
       <c r="M24" t="n">
-        <v>1412.306284051912</v>
+        <v>3244.297375738655</v>
       </c>
       <c r="N24" t="n">
-        <v>1717.324067854736</v>
+        <v>4023.864110141597</v>
       </c>
       <c r="O24" t="n">
-        <v>2364.059650858621</v>
+        <v>4379.240000807112</v>
       </c>
       <c r="P24" t="n">
-        <v>2550.840764804471</v>
+        <v>4566.021114752961</v>
       </c>
       <c r="Q24" t="n">
-        <v>2625.779796610644</v>
+        <v>4640.960146559134</v>
       </c>
       <c r="R24" t="n">
-        <v>2625.779796610644</v>
+        <v>4640.960146559134</v>
       </c>
       <c r="S24" t="n">
-        <v>2484.0633025884</v>
+        <v>4499.243652536889</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.755829938758</v>
+        <v>4303.936179887248</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.6444933181</v>
+        <v>4075.82484326659</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.492385086357</v>
+        <v>3840.672735034847</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.255028358156</v>
+        <v>3586.435378306646</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.403528152623</v>
+        <v>3378.583878101113</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.643229387669</v>
+        <v>3170.823579336159</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1140.068506951828</v>
+        <v>430.012419800388</v>
       </c>
       <c r="C25" t="n">
-        <v>971.1323240239213</v>
+        <v>261.0762368724811</v>
       </c>
       <c r="D25" t="n">
-        <v>821.0156846115856</v>
+        <v>261.0762368724811</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1025910291925</v>
+        <v>261.0762368724811</v>
       </c>
       <c r="F25" t="n">
-        <v>526.2126435312821</v>
+        <v>261.0762368724811</v>
       </c>
       <c r="G25" t="n">
-        <v>357.9556095899836</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="H25" t="n">
-        <v>206.8111048527052</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="I25" t="n">
         <v>92.81920293118269</v>
       </c>
       <c r="J25" t="n">
-        <v>99.53980196551444</v>
+        <v>99.53980196551443</v>
       </c>
       <c r="K25" t="n">
-        <v>240.420647378956</v>
+        <v>240.4206473789559</v>
       </c>
       <c r="L25" t="n">
         <v>476.2260605336726</v>
@@ -6172,25 +6172,25 @@
         <v>1415.123848340295</v>
       </c>
       <c r="S25" t="n">
-        <v>1415.123848340295</v>
+        <v>1213.779816396165</v>
       </c>
       <c r="T25" t="n">
-        <v>1415.123848340295</v>
+        <v>989.6452669790708</v>
       </c>
       <c r="U25" t="n">
-        <v>1415.123848340295</v>
+        <v>700.5121711602044</v>
       </c>
       <c r="V25" t="n">
-        <v>1415.123848340295</v>
+        <v>700.5121711602044</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.123848340295</v>
+        <v>650.8049989439181</v>
       </c>
       <c r="X25" t="n">
-        <v>1415.123848340295</v>
+        <v>650.8049989439181</v>
       </c>
       <c r="Y25" t="n">
-        <v>1321.716971782068</v>
+        <v>430.012419800388</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2432.994098270117</v>
+        <v>2343.366054198618</v>
       </c>
       <c r="C26" t="n">
-        <v>2064.031581329705</v>
+        <v>1974.403537258207</v>
       </c>
       <c r="D26" t="n">
-        <v>1705.765882722955</v>
+        <v>1616.137838651456</v>
       </c>
       <c r="E26" t="n">
-        <v>1319.97763012471</v>
+        <v>1230.349586053212</v>
       </c>
       <c r="F26" t="n">
-        <v>908.991725335103</v>
+        <v>819.3636812636043</v>
       </c>
       <c r="G26" t="n">
-        <v>492.6837873307779</v>
+        <v>403.0557432592793</v>
       </c>
       <c r="H26" t="n">
-        <v>182.4472470026813</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="I26" t="n">
-        <v>92.81920293118269</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="J26" t="n">
-        <v>346.3302197475523</v>
+        <v>346.330219747552</v>
       </c>
       <c r="K26" t="n">
-        <v>847.0223222512323</v>
+        <v>847.0223222512325</v>
       </c>
       <c r="L26" t="n">
-        <v>1520.451777173542</v>
+        <v>1520.451777173543</v>
       </c>
       <c r="M26" t="n">
-        <v>2286.378347212057</v>
+        <v>2286.378347212058</v>
       </c>
       <c r="N26" t="n">
-        <v>3050.066412359558</v>
+        <v>3050.066412359559</v>
       </c>
       <c r="O26" t="n">
         <v>3726.007758803755</v>
@@ -6245,31 +6245,31 @@
         <v>4265.233676630593</v>
       </c>
       <c r="Q26" t="n">
-        <v>4592.948124542084</v>
+        <v>4592.948124542083</v>
       </c>
       <c r="R26" t="n">
-        <v>4640.960146559134</v>
+        <v>4640.960146559133</v>
       </c>
       <c r="S26" t="n">
-        <v>4640.960146559134</v>
+        <v>4502.515798719814</v>
       </c>
       <c r="T26" t="n">
-        <v>4429.574050882951</v>
+        <v>4291.129703043632</v>
       </c>
       <c r="U26" t="n">
-        <v>4175.944735128842</v>
+        <v>4037.500387289522</v>
       </c>
       <c r="V26" t="n">
-        <v>3844.881847785271</v>
+        <v>3846.339639769746</v>
       </c>
       <c r="W26" t="n">
-        <v>3583.19902857113</v>
+        <v>3493.570984499632</v>
       </c>
       <c r="X26" t="n">
-        <v>3209.733270310051</v>
+        <v>3120.105226238552</v>
       </c>
       <c r="Y26" t="n">
-        <v>2819.593938334239</v>
+        <v>2729.96589426274</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8029984197675</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2684404466525</v>
+        <v>358.2684404466524</v>
       </c>
       <c r="G27" t="n">
-        <v>221.2442960021549</v>
+        <v>221.2442960021548</v>
       </c>
       <c r="H27" t="n">
         <v>124.3581055952466</v>
       </c>
       <c r="I27" t="n">
-        <v>92.81920293118269</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="J27" t="n">
         <v>125.2851231526745</v>
       </c>
       <c r="K27" t="n">
-        <v>258.9293766318196</v>
+        <v>258.9293766318195</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0850511653632</v>
+        <v>484.9531093149384</v>
       </c>
       <c r="M27" t="n">
-        <v>1596.248967640591</v>
+        <v>937.7573334517939</v>
       </c>
       <c r="N27" t="n">
-        <v>1901.266751443415</v>
+        <v>1717.324067854736</v>
       </c>
       <c r="O27" t="n">
-        <v>2158.078638363339</v>
+        <v>2364.059650858621</v>
       </c>
       <c r="P27" t="n">
         <v>2550.840764804471</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3637.708323490265</v>
+        <v>1140.068506951828</v>
       </c>
       <c r="C28" t="n">
-        <v>3468.772140562358</v>
+        <v>971.1323240239213</v>
       </c>
       <c r="D28" t="n">
-        <v>3318.655501150022</v>
+        <v>821.0156846115856</v>
       </c>
       <c r="E28" t="n">
-        <v>3318.655501150022</v>
+        <v>673.1025910291925</v>
       </c>
       <c r="F28" t="n">
-        <v>3318.655501150022</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="G28" t="n">
-        <v>3318.655501150022</v>
+        <v>357.9556095899836</v>
       </c>
       <c r="H28" t="n">
-        <v>3318.655501150022</v>
+        <v>206.8111048527052</v>
       </c>
       <c r="I28" t="n">
-        <v>3318.655501150022</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="J28" t="n">
-        <v>3325.376100184354</v>
+        <v>99.5398019655144</v>
       </c>
       <c r="K28" t="n">
-        <v>3466.256945597795</v>
+        <v>240.4206473789559</v>
       </c>
       <c r="L28" t="n">
-        <v>3702.062358752512</v>
+        <v>476.2260605336725</v>
       </c>
       <c r="M28" t="n">
-        <v>3961.075227660081</v>
+        <v>735.2389294412416</v>
       </c>
       <c r="N28" t="n">
-        <v>4219.363965889109</v>
+        <v>993.5276676702692</v>
       </c>
       <c r="O28" t="n">
-        <v>4441.919125372829</v>
+        <v>1216.082827153989</v>
       </c>
       <c r="P28" t="n">
-        <v>4608.832829674138</v>
+        <v>1382.996531455299</v>
       </c>
       <c r="Q28" t="n">
-        <v>4640.960146559134</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="R28" t="n">
-        <v>4640.960146559134</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="S28" t="n">
-        <v>4640.960146559134</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="T28" t="n">
-        <v>4640.960146559134</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="U28" t="n">
-        <v>4640.960146559134</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="V28" t="n">
-        <v>4557.556088399013</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="W28" t="n">
-        <v>4268.138918362052</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="X28" t="n">
-        <v>4040.149367464035</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="Y28" t="n">
-        <v>3819.356788320505</v>
+        <v>1321.716971782068</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2414.850010051007</v>
+        <v>2203.463914374825</v>
       </c>
       <c r="C29" t="n">
-        <v>2045.887493110596</v>
+        <v>1834.501397434413</v>
       </c>
       <c r="D29" t="n">
-        <v>1687.621794503845</v>
+        <v>1476.235698827662</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.833541905601</v>
+        <v>1090.447446229418</v>
       </c>
       <c r="F29" t="n">
-        <v>890.8476371159934</v>
+        <v>679.4615414398106</v>
       </c>
       <c r="G29" t="n">
-        <v>474.5396991116684</v>
+        <v>263.1536034354856</v>
       </c>
       <c r="H29" t="n">
-        <v>182.4472470026813</v>
+        <v>92.81920293118269</v>
       </c>
       <c r="I29" t="n">
         <v>92.81920293118269</v>
       </c>
       <c r="J29" t="n">
-        <v>346.3302197475523</v>
+        <v>346.3302197475532</v>
       </c>
       <c r="K29" t="n">
-        <v>847.0223222512323</v>
+        <v>847.0223222512336</v>
       </c>
       <c r="L29" t="n">
-        <v>1520.451777173542</v>
+        <v>1520.451777173543</v>
       </c>
       <c r="M29" t="n">
-        <v>2286.378347212057</v>
+        <v>2286.378347212059</v>
       </c>
       <c r="N29" t="n">
-        <v>3050.066412359558</v>
+        <v>3050.06641235956</v>
       </c>
       <c r="O29" t="n">
-        <v>3726.007758803755</v>
+        <v>3726.007758803756</v>
       </c>
       <c r="P29" t="n">
         <v>4265.233676630593</v>
@@ -6491,22 +6491,22 @@
         <v>4502.515798719815</v>
       </c>
       <c r="T29" t="n">
-        <v>4502.515798719815</v>
+        <v>4291.129703043633</v>
       </c>
       <c r="U29" t="n">
-        <v>4248.886482965706</v>
+        <v>4037.500387289523</v>
       </c>
       <c r="V29" t="n">
-        <v>3917.823595622135</v>
+        <v>3706.437499945952</v>
       </c>
       <c r="W29" t="n">
-        <v>3565.054940352021</v>
+        <v>3353.668844675838</v>
       </c>
       <c r="X29" t="n">
-        <v>3191.589182090941</v>
+        <v>2980.203086414758</v>
       </c>
       <c r="Y29" t="n">
-        <v>2801.449850115129</v>
+        <v>2590.063754438946</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4278923676012</v>
+        <v>987.4278923676014</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9748630864742</v>
+        <v>812.9748630864744</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0404534252229</v>
+        <v>664.0404534252232</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8029984197675</v>
+        <v>504.8029984197676</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2684404466525</v>
+        <v>358.2684404466526</v>
       </c>
       <c r="G30" t="n">
         <v>221.2442960021549</v>
@@ -6543,16 +6543,16 @@
         <v>125.2851231526745</v>
       </c>
       <c r="K30" t="n">
-        <v>258.9293766318196</v>
+        <v>258.9293766318195</v>
       </c>
       <c r="L30" t="n">
-        <v>852.0850511653632</v>
+        <v>484.9531093149385</v>
       </c>
       <c r="M30" t="n">
-        <v>1596.248967640591</v>
+        <v>937.7573334517939</v>
       </c>
       <c r="N30" t="n">
-        <v>1901.266751443415</v>
+        <v>1717.324067854736</v>
       </c>
       <c r="O30" t="n">
         <v>2364.059650858621</v>
@@ -6573,10 +6573,10 @@
         <v>2288.755829938758</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.6444933181</v>
+        <v>2060.644493318101</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.492385086357</v>
+        <v>1825.492385086358</v>
       </c>
       <c r="W30" t="n">
         <v>1571.255028358156</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>229.4465362930041</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="C31" t="n">
-        <v>229.4465362930041</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="D31" t="n">
-        <v>206.8111048527052</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="E31" t="n">
-        <v>206.8111048527052</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="F31" t="n">
-        <v>206.8111048527052</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="G31" t="n">
-        <v>206.8111048527052</v>
+        <v>357.9556095899837</v>
       </c>
       <c r="H31" t="n">
         <v>206.8111048527052</v>
@@ -6619,10 +6619,10 @@
         <v>92.81920293118269</v>
       </c>
       <c r="J31" t="n">
-        <v>99.53980196551444</v>
+        <v>99.53980196551443</v>
       </c>
       <c r="K31" t="n">
-        <v>240.420647378956</v>
+        <v>240.4206473789559</v>
       </c>
       <c r="L31" t="n">
         <v>476.2260605336726</v>
@@ -6646,25 +6646,25 @@
         <v>1415.123848340295</v>
       </c>
       <c r="S31" t="n">
-        <v>1213.779816396165</v>
+        <v>1415.123848340295</v>
       </c>
       <c r="T31" t="n">
-        <v>989.6452669790708</v>
+        <v>1359.447397592996</v>
       </c>
       <c r="U31" t="n">
-        <v>700.5121711602044</v>
+        <v>1070.31430177413</v>
       </c>
       <c r="V31" t="n">
-        <v>700.5121711602044</v>
+        <v>815.6298135682428</v>
       </c>
       <c r="W31" t="n">
-        <v>411.0950011232438</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="X31" t="n">
-        <v>411.0950011232438</v>
+        <v>526.2126435312821</v>
       </c>
       <c r="Y31" t="n">
-        <v>411.0950011232438</v>
+        <v>526.2126435312821</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6698,22 @@
         <v>92.81920293118266</v>
       </c>
       <c r="J32" t="n">
-        <v>346.330219747552</v>
+        <v>346.3302197475532</v>
       </c>
       <c r="K32" t="n">
-        <v>847.0223222512326</v>
+        <v>847.0223222512336</v>
       </c>
       <c r="L32" t="n">
-        <v>1520.451777173542</v>
+        <v>1520.451777173543</v>
       </c>
       <c r="M32" t="n">
-        <v>2286.378347212057</v>
+        <v>2286.378347212058</v>
       </c>
       <c r="N32" t="n">
-        <v>3050.066412359558</v>
+        <v>3050.066412359559</v>
       </c>
       <c r="O32" t="n">
-        <v>3726.007758803755</v>
+        <v>3726.007758803756</v>
       </c>
       <c r="P32" t="n">
         <v>4265.233676630593</v>
@@ -6725,22 +6725,22 @@
         <v>4640.960146559133</v>
       </c>
       <c r="S32" t="n">
-        <v>4502.515798719814</v>
+        <v>4520.659886938925</v>
       </c>
       <c r="T32" t="n">
-        <v>4291.129703043632</v>
+        <v>4520.659886938925</v>
       </c>
       <c r="U32" t="n">
-        <v>4037.500387289522</v>
+        <v>4267.030571184815</v>
       </c>
       <c r="V32" t="n">
-        <v>3706.437499945951</v>
+        <v>3935.967683841245</v>
       </c>
       <c r="W32" t="n">
-        <v>3353.668844675837</v>
+        <v>3583.19902857113</v>
       </c>
       <c r="X32" t="n">
-        <v>2980.203086414757</v>
+        <v>3209.733270310051</v>
       </c>
       <c r="Y32" t="n">
         <v>2819.593938334239</v>
@@ -6783,13 +6783,13 @@
         <v>258.9293766318195</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0850511653631</v>
+        <v>484.9531093149384</v>
       </c>
       <c r="M33" t="n">
-        <v>1596.248967640591</v>
+        <v>1229.117025790166</v>
       </c>
       <c r="N33" t="n">
-        <v>1901.266751443415</v>
+        <v>1717.324067854736</v>
       </c>
       <c r="O33" t="n">
         <v>2364.059650858621</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>261.076236872481</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="C34" t="n">
-        <v>261.076236872481</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="D34" t="n">
-        <v>261.076236872481</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="E34" t="n">
-        <v>261.076236872481</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="F34" t="n">
-        <v>261.076236872481</v>
+        <v>92.81920293118266</v>
       </c>
       <c r="G34" t="n">
         <v>92.81920293118266</v>
@@ -6856,19 +6856,19 @@
         <v>92.81920293118266</v>
       </c>
       <c r="J34" t="n">
-        <v>99.53980196551441</v>
+        <v>99.5398019655144</v>
       </c>
       <c r="K34" t="n">
         <v>240.4206473789559</v>
       </c>
       <c r="L34" t="n">
-        <v>476.2260605336726</v>
+        <v>476.2260605336725</v>
       </c>
       <c r="M34" t="n">
-        <v>735.2389294412417</v>
+        <v>735.2389294412416</v>
       </c>
       <c r="N34" t="n">
-        <v>993.5276676702695</v>
+        <v>993.5276676702692</v>
       </c>
       <c r="O34" t="n">
         <v>1216.082827153989</v>
@@ -6883,25 +6883,25 @@
         <v>1300.374664506715</v>
       </c>
       <c r="S34" t="n">
-        <v>1099.030632562584</v>
+        <v>1300.374664506715</v>
       </c>
       <c r="T34" t="n">
-        <v>874.8960831454904</v>
+        <v>1300.374664506715</v>
       </c>
       <c r="U34" t="n">
-        <v>585.7629873266239</v>
+        <v>1012.666967839931</v>
       </c>
       <c r="V34" t="n">
-        <v>489.0657877704984</v>
+        <v>1012.666967839931</v>
       </c>
       <c r="W34" t="n">
-        <v>489.0657877704984</v>
+        <v>723.2497978029699</v>
       </c>
       <c r="X34" t="n">
-        <v>261.076236872481</v>
+        <v>495.2602469049525</v>
       </c>
       <c r="Y34" t="n">
-        <v>261.076236872481</v>
+        <v>274.4676677614224</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1899.968219178826</v>
+        <v>2400.582168039933</v>
       </c>
       <c r="C35" t="n">
-        <v>1531.005702238415</v>
+        <v>2031.619651099521</v>
       </c>
       <c r="D35" t="n">
-        <v>1172.740003631664</v>
+        <v>1673.35395249277</v>
       </c>
       <c r="E35" t="n">
-        <v>786.9517510334199</v>
+        <v>1287.565699894526</v>
       </c>
       <c r="F35" t="n">
-        <v>786.9517510334199</v>
+        <v>876.5797951049185</v>
       </c>
       <c r="G35" t="n">
-        <v>370.6438130290949</v>
+        <v>460.2718571005935</v>
       </c>
       <c r="H35" t="n">
-        <v>60.40727270099822</v>
+        <v>150.0353167724968</v>
       </c>
       <c r="I35" t="n">
-        <v>60.40727270099822</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="J35" t="n">
-        <v>146.5126404970145</v>
+        <v>313.9182895173675</v>
       </c>
       <c r="K35" t="n">
-        <v>326.3007845552419</v>
+        <v>493.7064335755949</v>
       </c>
       <c r="L35" t="n">
-        <v>840.1546427938218</v>
+        <v>753.6512860929583</v>
       </c>
       <c r="M35" t="n">
-        <v>1587.694642468675</v>
+        <v>1501.191285767811</v>
       </c>
       <c r="N35" t="n">
-        <v>2335.234642143528</v>
+        <v>2248.731285442664</v>
       </c>
       <c r="O35" t="n">
-        <v>2634.183809137606</v>
+        <v>2547.680452436743</v>
       </c>
       <c r="P35" t="n">
         <v>2854.829005874676</v>
@@ -6959,28 +6959,28 @@
         <v>2972.35161303286</v>
       </c>
       <c r="R35" t="n">
-        <v>3020.363635049911</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="S35" t="n">
-        <v>3020.363635049911</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="T35" t="n">
-        <v>3020.363635049911</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="U35" t="n">
-        <v>3020.363635049911</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="V35" t="n">
-        <v>3012.802472774142</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="W35" t="n">
-        <v>2660.033817504028</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="X35" t="n">
-        <v>2286.568059242948</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2286.568059242948</v>
+        <v>2787.182008104055</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>472.3910681895831</v>
       </c>
       <c r="F36" t="n">
-        <v>325.8565102164681</v>
+        <v>325.856510216468</v>
       </c>
       <c r="G36" t="n">
         <v>188.8323657719704</v>
       </c>
       <c r="H36" t="n">
-        <v>91.94617536506217</v>
+        <v>91.94617536506216</v>
       </c>
       <c r="I36" t="n">
-        <v>60.40727270099822</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="J36" t="n">
-        <v>92.87319292249002</v>
+        <v>92.87319292249001</v>
       </c>
       <c r="K36" t="n">
-        <v>226.517446401635</v>
+        <v>488.3380310440879</v>
       </c>
       <c r="L36" t="n">
-        <v>819.6731209351785</v>
+        <v>1081.493705577631</v>
       </c>
       <c r="M36" t="n">
-        <v>1454.539908952152</v>
+        <v>1769.81804990569</v>
       </c>
       <c r="N36" t="n">
-        <v>1759.557692754976</v>
+        <v>2074.835833708514</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.369579674899</v>
+        <v>2331.647720628437</v>
       </c>
       <c r="P36" t="n">
         <v>2518.428834574287</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.2644941687832</v>
+        <v>229.3434556289051</v>
       </c>
       <c r="C37" t="n">
-        <v>124.2644941687832</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="D37" t="n">
-        <v>124.2644941687832</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="E37" t="n">
-        <v>124.2644941687832</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="F37" t="n">
-        <v>60.40727270099822</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="G37" t="n">
-        <v>60.40727270099822</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="H37" t="n">
-        <v>60.40727270099822</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="I37" t="n">
-        <v>60.40727270099822</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="J37" t="n">
-        <v>67.12787173532996</v>
+        <v>67.12787173532995</v>
       </c>
       <c r="K37" t="n">
-        <v>208.0087171487715</v>
+        <v>208.0087171487714</v>
       </c>
       <c r="L37" t="n">
         <v>443.8141303034881</v>
       </c>
       <c r="M37" t="n">
-        <v>702.8269992110572</v>
+        <v>702.8269992110571</v>
       </c>
       <c r="N37" t="n">
-        <v>961.115737440085</v>
+        <v>961.1157374400848</v>
       </c>
       <c r="O37" t="n">
         <v>1183.670896923805</v>
@@ -7117,28 +7117,28 @@
         <v>1382.711918110111</v>
       </c>
       <c r="R37" t="n">
-        <v>1267.96273427653</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="S37" t="n">
-        <v>1267.96273427653</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="T37" t="n">
-        <v>1043.828184859437</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="U37" t="n">
-        <v>754.6950890405703</v>
+        <v>1093.578822291244</v>
       </c>
       <c r="V37" t="n">
-        <v>754.6950890405703</v>
+        <v>838.8943340853574</v>
       </c>
       <c r="W37" t="n">
-        <v>754.6950890405703</v>
+        <v>549.4771640483968</v>
       </c>
       <c r="X37" t="n">
-        <v>526.705538142553</v>
+        <v>549.4771640483968</v>
       </c>
       <c r="Y37" t="n">
-        <v>305.9129589990229</v>
+        <v>410.9919204591448</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1952.688425361683</v>
+        <v>1984.274230035607</v>
       </c>
       <c r="C38" t="n">
-        <v>1583.725908421272</v>
+        <v>1615.311713095196</v>
       </c>
       <c r="D38" t="n">
-        <v>1583.725908421272</v>
+        <v>1257.046014488445</v>
       </c>
       <c r="E38" t="n">
-        <v>1197.937655823027</v>
+        <v>871.257761890201</v>
       </c>
       <c r="F38" t="n">
-        <v>786.9517510334199</v>
+        <v>460.2718571005935</v>
       </c>
       <c r="G38" t="n">
-        <v>370.6438130290949</v>
+        <v>460.2718571005935</v>
       </c>
       <c r="H38" t="n">
-        <v>60.40727270099822</v>
+        <v>150.0353167724968</v>
       </c>
       <c r="I38" t="n">
-        <v>60.40727270099822</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="J38" t="n">
         <v>313.9182895173675</v>
       </c>
       <c r="K38" t="n">
-        <v>814.610392021048</v>
+        <v>493.7064335755949</v>
       </c>
       <c r="L38" t="n">
-        <v>1202.851320457257</v>
+        <v>1167.135888497904</v>
       </c>
       <c r="M38" t="n">
-        <v>1523.759492337868</v>
+        <v>1488.044060378515</v>
       </c>
       <c r="N38" t="n">
-        <v>1854.474102317505</v>
+        <v>1818.758670358152</v>
       </c>
       <c r="O38" t="n">
-        <v>2153.423269311583</v>
+        <v>2494.700016802348</v>
       </c>
       <c r="P38" t="n">
-        <v>2692.649187138421</v>
+        <v>2715.345213539418</v>
       </c>
       <c r="Q38" t="n">
-        <v>3020.363635049911</v>
+        <v>2972.35161303286</v>
       </c>
       <c r="R38" t="n">
-        <v>3020.363635049911</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="S38" t="n">
-        <v>3020.363635049911</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="T38" t="n">
-        <v>2932.552154646987</v>
+        <v>2921.735088403402</v>
       </c>
       <c r="U38" t="n">
-        <v>2678.922838892878</v>
+        <v>2668.105772649292</v>
       </c>
       <c r="V38" t="n">
-        <v>2678.922838892878</v>
+        <v>2337.042885305721</v>
       </c>
       <c r="W38" t="n">
-        <v>2326.154183622763</v>
+        <v>1984.274230035607</v>
       </c>
       <c r="X38" t="n">
-        <v>1952.688425361683</v>
+        <v>1984.274230035607</v>
       </c>
       <c r="Y38" t="n">
-        <v>1952.688425361683</v>
+        <v>1984.274230035607</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>472.3910681895831</v>
       </c>
       <c r="F39" t="n">
-        <v>325.8565102164681</v>
+        <v>325.856510216468</v>
       </c>
       <c r="G39" t="n">
         <v>188.8323657719704</v>
       </c>
       <c r="H39" t="n">
-        <v>91.94617536506217</v>
+        <v>91.94617536506216</v>
       </c>
       <c r="I39" t="n">
-        <v>60.40727270099822</v>
+        <v>60.40727270099821</v>
       </c>
       <c r="J39" t="n">
-        <v>92.87319292249002</v>
+        <v>217.7033179094948</v>
       </c>
       <c r="K39" t="n">
-        <v>226.517446401635</v>
+        <v>351.3475713886398</v>
       </c>
       <c r="L39" t="n">
-        <v>819.6731209351785</v>
+        <v>944.5032459221832</v>
       </c>
       <c r="M39" t="n">
-        <v>1379.894353821728</v>
+        <v>1227.619149284911</v>
       </c>
       <c r="N39" t="n">
-        <v>1684.912137624552</v>
+        <v>1532.636933087735</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.647720628437</v>
+        <v>2016.369579674899</v>
       </c>
       <c r="P39" t="n">
         <v>2518.428834574287</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.40727270099822</v>
+        <v>2305.751957869819</v>
       </c>
       <c r="C40" t="n">
-        <v>60.40727270099822</v>
+        <v>2136.815774941912</v>
       </c>
       <c r="D40" t="n">
-        <v>60.40727270099822</v>
+        <v>1986.699135529577</v>
       </c>
       <c r="E40" t="n">
-        <v>60.40727270099822</v>
+        <v>1963.195396299599</v>
       </c>
       <c r="F40" t="n">
-        <v>60.40727270099822</v>
+        <v>1963.195396299599</v>
       </c>
       <c r="G40" t="n">
-        <v>60.40727270099822</v>
+        <v>1963.195396299599</v>
       </c>
       <c r="H40" t="n">
-        <v>60.40727270099822</v>
+        <v>1812.050891562321</v>
       </c>
       <c r="I40" t="n">
-        <v>60.40727270099822</v>
+        <v>1698.058989640798</v>
       </c>
       <c r="J40" t="n">
-        <v>67.12787173532996</v>
+        <v>1704.77958867513</v>
       </c>
       <c r="K40" t="n">
-        <v>208.0087171487715</v>
+        <v>1845.660434088572</v>
       </c>
       <c r="L40" t="n">
-        <v>443.8141303034881</v>
+        <v>2081.465847243288</v>
       </c>
       <c r="M40" t="n">
-        <v>702.8269992110572</v>
+        <v>2340.478716150858</v>
       </c>
       <c r="N40" t="n">
-        <v>961.115737440085</v>
+        <v>2598.767454379885</v>
       </c>
       <c r="O40" t="n">
-        <v>1183.670896923805</v>
+        <v>2821.322613863605</v>
       </c>
       <c r="P40" t="n">
-        <v>1350.584601225115</v>
+        <v>2988.236318164915</v>
       </c>
       <c r="Q40" t="n">
-        <v>1382.711918110111</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="R40" t="n">
-        <v>1382.711918110111</v>
+        <v>3020.36363504991</v>
       </c>
       <c r="S40" t="n">
-        <v>1181.36788616598</v>
+        <v>2819.019603105779</v>
       </c>
       <c r="T40" t="n">
-        <v>957.2333367488864</v>
+        <v>2594.885053688686</v>
       </c>
       <c r="U40" t="n">
-        <v>668.1002409300199</v>
+        <v>2305.751957869819</v>
       </c>
       <c r="V40" t="n">
-        <v>413.4157527241331</v>
+        <v>2305.751957869819</v>
       </c>
       <c r="W40" t="n">
-        <v>123.9985826871725</v>
+        <v>2305.751957869819</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9985826871725</v>
+        <v>2305.751957869819</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.40727270099822</v>
+        <v>2305.751957869819</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1572.927002199333</v>
+        <v>1335.59485817318</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.964485258922</v>
+        <v>1335.59485817318</v>
       </c>
       <c r="D41" t="n">
-        <v>1203.964485258922</v>
+        <v>977.3291595664293</v>
       </c>
       <c r="E41" t="n">
-        <v>818.1762326606774</v>
+        <v>977.3291595664293</v>
       </c>
       <c r="F41" t="n">
-        <v>407.1903278710699</v>
+        <v>566.3432547768218</v>
       </c>
       <c r="G41" t="n">
-        <v>60.4072727009982</v>
+        <v>150.0353167724967</v>
       </c>
       <c r="H41" t="n">
-        <v>60.4072727009982</v>
+        <v>150.0353167724967</v>
       </c>
       <c r="I41" t="n">
-        <v>60.4072727009982</v>
+        <v>60.40727270099818</v>
       </c>
       <c r="J41" t="n">
         <v>146.5126404970145</v>
@@ -7415,46 +7415,46 @@
         <v>326.3007845552419</v>
       </c>
       <c r="L41" t="n">
-        <v>888.1666648108718</v>
+        <v>840.1546427938209</v>
       </c>
       <c r="M41" t="n">
-        <v>1635.706664485725</v>
+        <v>1587.694642468673</v>
       </c>
       <c r="N41" t="n">
-        <v>2383.246664160577</v>
+        <v>2335.234642143526</v>
       </c>
       <c r="O41" t="n">
-        <v>2682.195831154656</v>
+        <v>2634.183809137604</v>
       </c>
       <c r="P41" t="n">
-        <v>2902.841027891726</v>
+        <v>2854.829005874674</v>
       </c>
       <c r="Q41" t="n">
-        <v>3020.36363504991</v>
+        <v>2972.351613032858</v>
       </c>
       <c r="R41" t="n">
-        <v>3020.36363504991</v>
+        <v>3020.363635049909</v>
       </c>
       <c r="S41" t="n">
-        <v>3020.36363504991</v>
+        <v>2881.91928721059</v>
       </c>
       <c r="T41" t="n">
-        <v>3020.36363504991</v>
+        <v>2670.533191534408</v>
       </c>
       <c r="U41" t="n">
-        <v>3020.36363504991</v>
+        <v>2416.903875780298</v>
       </c>
       <c r="V41" t="n">
-        <v>2689.300747706339</v>
+        <v>2085.840988436727</v>
       </c>
       <c r="W41" t="n">
-        <v>2336.532092436225</v>
+        <v>1733.072333166613</v>
       </c>
       <c r="X41" t="n">
-        <v>1963.066334175145</v>
+        <v>1725.734190148992</v>
       </c>
       <c r="Y41" t="n">
-        <v>1572.927002199333</v>
+        <v>1335.59485817318</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>188.8323657719704</v>
       </c>
       <c r="H42" t="n">
-        <v>91.94617536506215</v>
+        <v>91.94617536506213</v>
       </c>
       <c r="I42" t="n">
-        <v>60.4072727009982</v>
+        <v>60.40727270099818</v>
       </c>
       <c r="J42" t="n">
-        <v>92.87319292249001</v>
+        <v>217.7033179094947</v>
       </c>
       <c r="K42" t="n">
-        <v>226.517446401635</v>
+        <v>613.1681560310926</v>
       </c>
       <c r="L42" t="n">
-        <v>819.6731209351785</v>
+        <v>839.1918887142116</v>
       </c>
       <c r="M42" t="n">
         <v>1379.894353821728</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>228.6643066422966</v>
+        <v>493.8007133010976</v>
       </c>
       <c r="C43" t="n">
-        <v>228.6643066422966</v>
+        <v>493.8007133010976</v>
       </c>
       <c r="D43" t="n">
-        <v>228.6643066422966</v>
+        <v>493.8007133010976</v>
       </c>
       <c r="E43" t="n">
-        <v>228.6643066422966</v>
+        <v>493.8007133010976</v>
       </c>
       <c r="F43" t="n">
-        <v>228.6643066422966</v>
+        <v>493.8007133010976</v>
       </c>
       <c r="G43" t="n">
-        <v>60.4072727009982</v>
+        <v>325.5436793597992</v>
       </c>
       <c r="H43" t="n">
-        <v>60.4072727009982</v>
+        <v>174.3991746225207</v>
       </c>
       <c r="I43" t="n">
-        <v>60.4072727009982</v>
+        <v>60.40727270099818</v>
       </c>
       <c r="J43" t="n">
-        <v>67.12787173532993</v>
+        <v>67.12787173532992</v>
       </c>
       <c r="K43" t="n">
         <v>208.0087171487714</v>
@@ -7591,28 +7591,28 @@
         <v>1382.711918110111</v>
       </c>
       <c r="R43" t="n">
-        <v>1267.96273427653</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="S43" t="n">
-        <v>1267.96273427653</v>
+        <v>1382.711918110111</v>
       </c>
       <c r="T43" t="n">
-        <v>1043.828184859437</v>
+        <v>1258.694950687475</v>
       </c>
       <c r="U43" t="n">
-        <v>754.6950890405701</v>
+        <v>1258.694950687475</v>
       </c>
       <c r="V43" t="n">
-        <v>738.8740558227873</v>
+        <v>1004.010462481588</v>
       </c>
       <c r="W43" t="n">
-        <v>449.4568857858267</v>
+        <v>714.5932924446277</v>
       </c>
       <c r="X43" t="n">
-        <v>449.4568857858267</v>
+        <v>714.5932924446277</v>
       </c>
       <c r="Y43" t="n">
-        <v>228.6643066422966</v>
+        <v>493.8007133010976</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1130.408104273666</v>
+        <v>853.8884660905217</v>
       </c>
       <c r="C44" t="n">
-        <v>761.4455873332545</v>
+        <v>484.92594915011</v>
       </c>
       <c r="D44" t="n">
-        <v>761.4455873332545</v>
+        <v>126.6602505433595</v>
       </c>
       <c r="E44" t="n">
-        <v>761.4455873332545</v>
+        <v>126.6602505433595</v>
       </c>
       <c r="F44" t="n">
-        <v>453.340144476186</v>
+        <v>126.6602505433595</v>
       </c>
       <c r="G44" t="n">
-        <v>37.03220647186097</v>
+        <v>126.6602505433595</v>
       </c>
       <c r="H44" t="n">
-        <v>37.03220647186097</v>
+        <v>126.6602505433595</v>
       </c>
       <c r="I44" t="n">
         <v>37.03220647186097</v>
@@ -7661,37 +7661,37 @@
         <v>1214.493352703716</v>
       </c>
       <c r="O44" t="n">
-        <v>1513.442519697795</v>
+        <v>1513.442519697794</v>
       </c>
       <c r="P44" t="n">
         <v>1734.087716434864</v>
       </c>
       <c r="Q44" t="n">
-        <v>1851.610323593049</v>
+        <v>1851.610323593048</v>
       </c>
       <c r="R44" t="n">
-        <v>1851.610323593049</v>
+        <v>1851.610323593048</v>
       </c>
       <c r="S44" t="n">
-        <v>1851.610323593049</v>
+        <v>1851.610323593048</v>
       </c>
       <c r="T44" t="n">
-        <v>1851.610323593049</v>
+        <v>1851.610323593048</v>
       </c>
       <c r="U44" t="n">
-        <v>1851.610323593049</v>
+        <v>1851.610323593048</v>
       </c>
       <c r="V44" t="n">
-        <v>1520.547436249478</v>
+        <v>1851.610323593048</v>
       </c>
       <c r="W44" t="n">
-        <v>1520.547436249478</v>
+        <v>1851.610323593048</v>
       </c>
       <c r="X44" t="n">
-        <v>1520.547436249478</v>
+        <v>1478.144565331968</v>
       </c>
       <c r="Y44" t="n">
-        <v>1130.408104273666</v>
+        <v>1088.005233356157</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>550.2823860218919</v>
+        <v>448.4105275817479</v>
       </c>
       <c r="C45" t="n">
-        <v>375.8293567407649</v>
+        <v>448.4105275817479</v>
       </c>
       <c r="D45" t="n">
-        <v>342.8042194504315</v>
+        <v>299.4761179204966</v>
       </c>
       <c r="E45" t="n">
-        <v>183.566764444976</v>
+        <v>140.2386629150411</v>
       </c>
       <c r="F45" t="n">
-        <v>37.03220647186097</v>
+        <v>140.2386629150411</v>
       </c>
       <c r="G45" t="n">
-        <v>37.03220647186097</v>
+        <v>140.2386629150411</v>
       </c>
       <c r="H45" t="n">
-        <v>37.03220647186097</v>
+        <v>68.57110913592491</v>
       </c>
       <c r="I45" t="n">
         <v>37.03220647186097</v>
       </c>
       <c r="J45" t="n">
-        <v>172.601111560265</v>
+        <v>194.3282516803575</v>
       </c>
       <c r="K45" t="n">
-        <v>306.24536503941</v>
+        <v>327.9725051595025</v>
       </c>
       <c r="L45" t="n">
-        <v>532.269097722529</v>
+        <v>553.9962378426214</v>
       </c>
       <c r="M45" t="n">
-        <v>815.385001085257</v>
+        <v>870.1057446572918</v>
       </c>
       <c r="N45" t="n">
-        <v>1120.402784888081</v>
+        <v>1328.379299746571</v>
       </c>
       <c r="O45" t="n">
-        <v>1377.214671808004</v>
+        <v>1585.191186666494</v>
       </c>
       <c r="P45" t="n">
-        <v>1563.995785753854</v>
+        <v>1771.972300612344</v>
       </c>
       <c r="Q45" t="n">
-        <v>1846.911332418518</v>
+        <v>1846.911332418517</v>
       </c>
       <c r="R45" t="n">
-        <v>1851.610323593049</v>
+        <v>1851.610323593048</v>
       </c>
       <c r="S45" t="n">
-        <v>1851.610323593049</v>
+        <v>1709.893829570804</v>
       </c>
       <c r="T45" t="n">
-        <v>1851.610323593049</v>
+        <v>1514.586356921162</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.498986972391</v>
+        <v>1286.475020300504</v>
       </c>
       <c r="V45" t="n">
-        <v>1388.346878740648</v>
+        <v>1286.475020300504</v>
       </c>
       <c r="W45" t="n">
-        <v>1134.109522012447</v>
+        <v>1032.237663572303</v>
       </c>
       <c r="X45" t="n">
-        <v>926.2580218069138</v>
+        <v>824.3861633667698</v>
       </c>
       <c r="Y45" t="n">
-        <v>718.4977230419599</v>
+        <v>616.6258646018159</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.7714304800713</v>
+        <v>183.9221539697713</v>
       </c>
       <c r="C46" t="n">
-        <v>331.8352475521644</v>
+        <v>183.9221539697713</v>
       </c>
       <c r="D46" t="n">
-        <v>331.8352475521644</v>
+        <v>183.9221539697713</v>
       </c>
       <c r="E46" t="n">
         <v>183.9221539697713</v>
@@ -7804,52 +7804,52 @@
         <v>37.03220647186097</v>
       </c>
       <c r="J46" t="n">
-        <v>43.75280550619271</v>
+        <v>43.7528055061927</v>
       </c>
       <c r="K46" t="n">
         <v>184.6336509196342</v>
       </c>
       <c r="L46" t="n">
-        <v>420.4390640743509</v>
+        <v>420.4390640743508</v>
       </c>
       <c r="M46" t="n">
-        <v>679.45193298192</v>
+        <v>679.4519329819199</v>
       </c>
       <c r="N46" t="n">
-        <v>937.7406712109478</v>
+        <v>937.7406712109475</v>
       </c>
       <c r="O46" t="n">
         <v>1160.295830694668</v>
       </c>
       <c r="P46" t="n">
-        <v>1327.209534995978</v>
+        <v>1327.209534995977</v>
       </c>
       <c r="Q46" t="n">
-        <v>1359.336851880974</v>
+        <v>1359.336851880973</v>
       </c>
       <c r="R46" t="n">
-        <v>1359.336851880974</v>
+        <v>1359.336851880973</v>
       </c>
       <c r="S46" t="n">
-        <v>1359.336851880974</v>
+        <v>1157.992819936843</v>
       </c>
       <c r="T46" t="n">
-        <v>1359.336851880974</v>
+        <v>933.8582705197489</v>
       </c>
       <c r="U46" t="n">
-        <v>1359.336851880974</v>
+        <v>933.8582705197489</v>
       </c>
       <c r="V46" t="n">
-        <v>1104.652363675087</v>
+        <v>933.8582705197489</v>
       </c>
       <c r="W46" t="n">
-        <v>903.2124744538412</v>
+        <v>814.3527488415585</v>
       </c>
       <c r="X46" t="n">
-        <v>903.2124744538412</v>
+        <v>586.3631979435412</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.4198953103111</v>
+        <v>365.5706188000111</v>
       </c>
     </row>
   </sheetData>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,7 +8298,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8307,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>383.5928586566178</v>
+        <v>365.0336181145909</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>312.1082551593719</v>
       </c>
       <c r="O11" t="n">
-        <v>293.5490146173446</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>334.6403430935831</v>
+        <v>156.1717310896523</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>386.7574703712038</v>
+        <v>386.7574703712039</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>383.5928586566178</v>
+        <v>383.5928586566179</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>342.0460065537601</v>
       </c>
       <c r="P14" t="n">
-        <v>17.90059398259487</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17.21942793656771</v>
+        <v>17.21942793656774</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>360.1877567926131</v>
+        <v>188.947431156151</v>
       </c>
       <c r="N15" t="n">
-        <v>313.578935740501</v>
+        <v>338.0646452369607</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>386.7574703712039</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.77521407947124</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,16 +9167,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>383.5928586566178</v>
+        <v>365.0336181145913</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>312.1082551593722</v>
       </c>
       <c r="O17" t="n">
-        <v>342.0460065537598</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>17.21942793656771</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>360.1877567926131</v>
+        <v>193.6938868880004</v>
       </c>
       <c r="N18" t="n">
-        <v>297.6618106727565</v>
+        <v>338.0646452369608</v>
       </c>
       <c r="O18" t="n">
-        <v>386.7574703712039</v>
+        <v>386.757470371204</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.77521407947124</v>
+        <v>40.77521407947125</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>28.16811877253846</v>
+        <v>197.2647339446116</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>17.21942793656771</v>
+        <v>17.21942793656774</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,10 +9489,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>185.0396548098438</v>
       </c>
       <c r="O21" t="n">
-        <v>99.55959974301948</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.77521407947124</v>
+        <v>40.77521407947125</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>279.9043732563845</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>99.55959974302141</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.77521407947124</v>
+        <v>40.77521407947125</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>171.4023442162903</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>208.0616287831139</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.77521407947124</v>
+        <v>40.77521407947125</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,16 +10194,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>171.4023442162903</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>208.0616287831141</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.77521407947124</v>
+        <v>40.77521407947125</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>185.039654809844</v>
       </c>
       <c r="O33" t="n">
-        <v>208.0616287831141</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.77521407947124</v>
+        <v>40.77521407947125</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>256.4737431527441</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>430.9412401962038</v>
+        <v>430.9412401962037</v>
       </c>
       <c r="N35" t="n">
-        <v>421.0357471668851</v>
+        <v>421.035747166885</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>87.37712798066997</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>355.3039238931775</v>
+        <v>409.3014555205357</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>129.5919958776215</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>140.8927195305631</v>
       </c>
       <c r="R38" t="n">
-        <v>17.21942793656774</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>279.904373256385</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>229.2128885527687</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>304.9707350891581</v>
+        <v>256.4737431527431</v>
       </c>
       <c r="M41" t="n">
-        <v>430.9412401962036</v>
+        <v>430.9412401962034</v>
       </c>
       <c r="N41" t="n">
-        <v>421.0357471668849</v>
+        <v>421.0357471668847</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.21942793656774</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>279.904373256385</v>
+        <v>260.1884462068566</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>104.1444291584972</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>33.32687217367908</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>154.803809380258</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.1341749248157</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>88.73176363078356</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U11" t="n">
-        <v>193.7073332752736</v>
+        <v>251.0930225965682</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>28.02105383457467</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.75607037581085</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>199.3305916246896</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>126.1118455594494</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H14" t="n">
-        <v>307.1341749248157</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>88.73176363078356</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>209.272234719421</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0930225965682</v>
+        <v>216.6677910011595</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>186.7062093142739</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>104.3867796964215</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>71.72269694755173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I16" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.1448586242818</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>206.4019001593825</v>
+        <v>9.883204099508134</v>
       </c>
       <c r="I17" t="n">
-        <v>88.73176363078356</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U17" t="n">
         <v>251.0930225965682</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>14.21821036200876</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V19" t="n">
-        <v>50.64629510893212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>174.6719149487908</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>335.8740233879481</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>123.5381123524157</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>113.6016919952446</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>199.3305916246896</v>
@@ -24181,19 +24181,19 @@
         <v>221.8932039229227</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>96.89579622127383</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>227.2348820563392</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>90.17497769541382</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>149.6330596899057</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8519829023073</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>113.6016919952446</v>
       </c>
       <c r="S25" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2417648606778</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>237.3128978424676</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.1118455594497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,10 +24500,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>138.5031184255566</v>
       </c>
       <c r="W26" t="n">
-        <v>90.17497769541382</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>286.2417648606778</v>
       </c>
       <c r="V28" t="n">
-        <v>169.567625745308</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>126.1118455594499</v>
       </c>
     </row>
     <row r="29">
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>17.96264733691845</v>
+        <v>138.5031184255558</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>88.73176363078358</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>126.2063958923164</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5744636018854</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>113.6016919952446</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.7735176830965</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24965,10 +24965,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>17.96264733691895</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.272234719421</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>227.2348820563403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5744636018854</v>
       </c>
       <c r="H34" t="n">
         <v>149.6330596899057</v>
@@ -25123,25 +25123,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>199.3305916246896</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.411145160561489</v>
       </c>
       <c r="V34" t="n">
-        <v>156.4074157632637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>88.73176363078358</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,16 +25211,16 @@
         <v>251.0930225965682</v>
       </c>
       <c r="V35" t="n">
-        <v>320.2667078171238</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>155.3881279796563</v>
       </c>
     </row>
     <row r="36">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>82.20239876982416</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.5744636018854</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S37" t="n">
         <v>199.3305916246896</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.8932039229227</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>81.48426219873528</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25403,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>88.73176363078358</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,19 +25442,19 @@
         <v>137.0599043609255</v>
       </c>
       <c r="T38" t="n">
-        <v>122.3388691205265</v>
+        <v>111.6299735393773</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>123.1652608088916</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>166.5744636018854</v>
       </c>
       <c r="H40" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.6292564657823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25628,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>68.8296340059108</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.1341749248157</v>
       </c>
       <c r="I41" t="n">
-        <v>88.73176363078358</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>137.0599043609255</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.272234719421</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0930225965682</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>362.4663390910234</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.6330596899057</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8519829023073</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>113.6016919952446</v>
       </c>
       <c r="S43" t="n">
         <v>199.3305916246896</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>99.11640617451366</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2417648606778</v>
       </c>
       <c r="V43" t="n">
-        <v>236.474820438223</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>150.958242070502</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>101.8516573132137</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.1448586242818</v>
       </c>
       <c r="H44" t="n">
         <v>307.1341749248157</v>
       </c>
       <c r="I44" t="n">
-        <v>88.73176363078358</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25922,13 @@
         <v>251.0930225965682</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25944,25 +25944,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>114.7501796472087</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>135.6539030000527</v>
       </c>
       <c r="H45" t="n">
-        <v>95.91732850283915</v>
+        <v>24.96645026151411</v>
       </c>
       <c r="I45" t="n">
-        <v>31.22351363742331</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,16 +25992,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>140.2993290820219</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>193.3543979231454</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26071,22 +26071,22 @@
         <v>113.6016919952446</v>
       </c>
       <c r="S46" t="n">
-        <v>199.3305916246896</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.8932039229227</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2417648606778</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>87.09750800755796</v>
+        <v>168.2125318751825</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662471.2702751568</v>
+        <v>662471.2702751567</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>662471.2702751567</v>
+        <v>662471.2702751568</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>865672.2007000693</v>
+        <v>865672.2007000692</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>865672.2007000688</v>
+        <v>865672.2007000691</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>705527.4351902974</v>
+        <v>705527.4351902973</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>705527.4351902973</v>
+        <v>705527.4351902974</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049979</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049984</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049981</v>
       </c>
       <c r="E2" t="n">
-        <v>422150.6908324714</v>
+        <v>422150.6908324715</v>
       </c>
       <c r="F2" t="n">
-        <v>422150.6908324716</v>
+        <v>422150.6908324717</v>
       </c>
       <c r="G2" t="n">
         <v>422150.6908324715</v>
@@ -26341,16 +26341,16 @@
         <v>533313.6814406102</v>
       </c>
       <c r="L2" t="n">
-        <v>533313.6814406101</v>
+        <v>533313.6814406099</v>
       </c>
       <c r="M2" t="n">
-        <v>445704.9730204309</v>
+        <v>445704.9730204308</v>
       </c>
       <c r="N2" t="n">
         <v>445704.9730204308</v>
       </c>
       <c r="O2" t="n">
-        <v>445704.9730204308</v>
+        <v>445704.9730204305</v>
       </c>
       <c r="P2" t="n">
         <v>361414.3259693758</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>752059.6482222209</v>
+        <v>752059.6482222208</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>78835.04055271611</v>
+        <v>78835.04055271605</v>
       </c>
       <c r="I3" t="n">
-        <v>59004.75650241086</v>
+        <v>59004.7565024109</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="C4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="D4" t="n">
-        <v>356868.6503137514</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>30707.28985903347</v>
+        <v>29761.53175965929</v>
       </c>
       <c r="F4" t="n">
-        <v>30707.28985903346</v>
+        <v>29761.53175965931</v>
       </c>
       <c r="G4" t="n">
-        <v>30707.28985903347</v>
+        <v>29761.53175965931</v>
       </c>
       <c r="H4" t="n">
-        <v>52236.45490473326</v>
+        <v>50620.60502683982</v>
       </c>
       <c r="I4" t="n">
-        <v>68585.73790155434</v>
+        <v>66461.01923578182</v>
       </c>
       <c r="J4" t="n">
-        <v>68585.73790155433</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="K4" t="n">
-        <v>68585.73790155433</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="L4" t="n">
-        <v>68585.73790155433</v>
+        <v>66461.0192357818</v>
       </c>
       <c r="M4" t="n">
-        <v>38733.33925869912</v>
+        <v>37537.77167041586</v>
       </c>
       <c r="N4" t="n">
-        <v>38733.33925869911</v>
+        <v>37537.77167041587</v>
       </c>
       <c r="O4" t="n">
-        <v>38733.3392586991</v>
+        <v>37537.77167041584</v>
       </c>
       <c r="P4" t="n">
-        <v>10011.5598487801</v>
+        <v>9709.95299730093</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>56411.12349407665</v>
+        <v>56411.12349407664</v>
       </c>
       <c r="F5" t="n">
         <v>56411.12349407664</v>
       </c>
       <c r="G5" t="n">
-        <v>56411.12349407664</v>
+        <v>56411.12349407666</v>
       </c>
       <c r="H5" t="n">
-        <v>74176.17382822096</v>
+        <v>74176.17382822094</v>
       </c>
       <c r="I5" t="n">
         <v>87666.98198307364</v>
       </c>
       <c r="J5" t="n">
-        <v>87666.98198307364</v>
+        <v>87666.98198307362</v>
       </c>
       <c r="K5" t="n">
         <v>87666.98198307364</v>
@@ -26509,7 +26509,7 @@
         <v>63033.91500813342</v>
       </c>
       <c r="P5" t="n">
-        <v>45268.86467398914</v>
+        <v>45268.86467398913</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88809.88829593756</v>
+        <v>91245.2713327792</v>
       </c>
       <c r="C6" t="n">
-        <v>169579.3198274851</v>
+        <v>172014.7028643274</v>
       </c>
       <c r="D6" t="n">
-        <v>169579.319827485</v>
+        <v>172014.7028643271</v>
       </c>
       <c r="E6" t="n">
-        <v>-417027.3707428597</v>
+        <v>-416081.6126434852</v>
       </c>
       <c r="F6" t="n">
-        <v>335032.2774793615</v>
+        <v>335978.0355787358</v>
       </c>
       <c r="G6" t="n">
-        <v>335032.2774793614</v>
+        <v>335978.0355787356</v>
       </c>
       <c r="H6" t="n">
-        <v>280085.292612649</v>
+        <v>281701.1424905426</v>
       </c>
       <c r="I6" t="n">
-        <v>318056.2050535713</v>
+        <v>320180.9237193437</v>
       </c>
       <c r="J6" t="n">
-        <v>314001.018956876</v>
+        <v>316125.7376226487</v>
       </c>
       <c r="K6" t="n">
-        <v>377060.9615559822</v>
+        <v>379185.6802217548</v>
       </c>
       <c r="L6" t="n">
-        <v>377060.9615559821</v>
+        <v>379185.6802217544</v>
       </c>
       <c r="M6" t="n">
-        <v>343937.7187535984</v>
+        <v>345133.2863418815</v>
       </c>
       <c r="N6" t="n">
-        <v>343937.7187535983</v>
+        <v>345133.2863418815</v>
       </c>
       <c r="O6" t="n">
-        <v>343937.7187535983</v>
+        <v>345133.2863418813</v>
       </c>
       <c r="P6" t="n">
-        <v>306133.9014466066</v>
+        <v>306435.5082980857</v>
       </c>
     </row>
   </sheetData>
@@ -26744,28 +26744,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>785.5223740997616</v>
+        <v>785.5223740997615</v>
       </c>
       <c r="F3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997614</v>
       </c>
       <c r="G3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997614</v>
       </c>
       <c r="H3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997614</v>
       </c>
       <c r="I3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997614</v>
       </c>
       <c r="J3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997614</v>
       </c>
       <c r="K3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997614</v>
       </c>
       <c r="L3" t="n">
-        <v>785.5223740997615</v>
+        <v>785.5223740997614</v>
       </c>
       <c r="M3" t="n">
         <v>785.5223740997614</v>
@@ -26802,16 +26802,16 @@
         <v>646.1634167549647</v>
       </c>
       <c r="G4" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="H4" t="n">
-        <v>938.3517446191802</v>
+        <v>938.35174461918</v>
       </c>
       <c r="I4" t="n">
         <v>1160.240036639784</v>
       </c>
       <c r="J4" t="n">
-        <v>1160.240036639784</v>
+        <v>1160.240036639783</v>
       </c>
       <c r="K4" t="n">
         <v>1160.240036639784</v>
@@ -26820,16 +26820,16 @@
         <v>1160.240036639783</v>
       </c>
       <c r="M4" t="n">
-        <v>755.0909087624777</v>
+        <v>755.0909087624776</v>
       </c>
       <c r="N4" t="n">
-        <v>755.0909087624777</v>
+        <v>755.0909087624776</v>
       </c>
       <c r="O4" t="n">
-        <v>755.0909087624775</v>
+        <v>755.0909087624773</v>
       </c>
       <c r="P4" t="n">
-        <v>462.9025808982622</v>
+        <v>462.902580898262</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>785.5223740997616</v>
+        <v>785.5223740997615</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>292.1883278642154</v>
+        <v>292.1883278642152</v>
       </c>
       <c r="I4" t="n">
-        <v>221.8882920206033</v>
+        <v>221.8882920206035</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776587</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>292.1883278642154</v>
+        <v>292.1883278642152</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>298.9664022772611</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,19 +27421,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3243572470092317</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>140.3583467392026</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.16556690500779</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27588,7 +27588,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>181.5942737834321</v>
       </c>
       <c r="F5" t="n">
-        <v>381.7025041237114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,16 +27670,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,7 +27749,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>35.02723208740591</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8786744963253739</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>331.7898455187701</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296655</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>63.60612360367251</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>128.7983775043236</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>54.03113748306089</v>
+        <v>115.2022481737659</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31762,37 +31762,37 @@
         <v>268.0210235125614</v>
       </c>
       <c r="K11" t="n">
-        <v>401.6940369623821</v>
+        <v>401.694036962382</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3369730683342</v>
+        <v>498.3369730683341</v>
       </c>
       <c r="M11" t="n">
-        <v>554.4959017935468</v>
+        <v>554.4959017935466</v>
       </c>
       <c r="N11" t="n">
-        <v>563.4682251921838</v>
+        <v>563.4682251921837</v>
       </c>
       <c r="O11" t="n">
-        <v>532.0670669712612</v>
+        <v>532.0670669712611</v>
       </c>
       <c r="P11" t="n">
-        <v>454.10693185332</v>
+        <v>454.1069318533199</v>
       </c>
       <c r="Q11" t="n">
-        <v>341.0153940746357</v>
+        <v>341.0153940746356</v>
       </c>
       <c r="R11" t="n">
         <v>198.3661098775644</v>
       </c>
       <c r="S11" t="n">
-        <v>71.96016522531988</v>
+        <v>71.96016522531987</v>
       </c>
       <c r="T11" t="n">
         <v>13.82361484471037</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2526303112682648</v>
+        <v>0.2526303112682647</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.689614163157978</v>
       </c>
       <c r="H12" t="n">
-        <v>16.31811573365732</v>
+        <v>16.31811573365731</v>
       </c>
       <c r="I12" t="n">
-        <v>58.17311921399179</v>
+        <v>58.17311921399178</v>
       </c>
       <c r="J12" t="n">
         <v>159.6314854762544</v>
@@ -31850,13 +31850,13 @@
         <v>428.10969388437</v>
       </c>
       <c r="N12" t="n">
-        <v>439.4404836013374</v>
+        <v>439.4404836013373</v>
       </c>
       <c r="O12" t="n">
-        <v>402.0021908282054</v>
+        <v>402.0021908282053</v>
       </c>
       <c r="P12" t="n">
-        <v>322.6421992788248</v>
+        <v>322.6421992788247</v>
       </c>
       <c r="Q12" t="n">
         <v>215.6777658094289</v>
@@ -31865,10 +31865,10 @@
         <v>104.9042898844927</v>
       </c>
       <c r="S12" t="n">
-        <v>31.38384202181593</v>
+        <v>31.38384202181592</v>
       </c>
       <c r="T12" t="n">
-        <v>6.810330771676233</v>
+        <v>6.810330771676232</v>
       </c>
       <c r="U12" t="n">
         <v>0.1111588265235512</v>
@@ -31941,16 +31941,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R13" t="n">
-        <v>63.69169938192491</v>
+        <v>63.6916993819249</v>
       </c>
       <c r="S13" t="n">
         <v>24.68600641228266</v>
       </c>
       <c r="T13" t="n">
-        <v>6.052385505358816</v>
+        <v>6.052385505358815</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07726449581309139</v>
+        <v>0.07726449581309137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,10 +31993,10 @@
         <v>32.34062719095147</v>
       </c>
       <c r="I14" t="n">
-        <v>121.7441259396224</v>
+        <v>121.7441259396223</v>
       </c>
       <c r="J14" t="n">
-        <v>268.0210235125614</v>
+        <v>268.0210235125613</v>
       </c>
       <c r="K14" t="n">
         <v>401.694036962382</v>
@@ -32008,13 +32008,13 @@
         <v>554.4959017935466</v>
       </c>
       <c r="N14" t="n">
-        <v>563.4682251921837</v>
+        <v>563.4682251921836</v>
       </c>
       <c r="O14" t="n">
-        <v>532.0670669712611</v>
+        <v>532.0670669712609</v>
       </c>
       <c r="P14" t="n">
-        <v>454.1069318533199</v>
+        <v>454.1069318533198</v>
       </c>
       <c r="Q14" t="n">
         <v>341.0153940746356</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.689614163157978</v>
+        <v>1.689614163157977</v>
       </c>
       <c r="H15" t="n">
         <v>16.31811573365731</v>
       </c>
       <c r="I15" t="n">
-        <v>58.17311921399178</v>
+        <v>58.17311921399177</v>
       </c>
       <c r="J15" t="n">
         <v>159.6314854762544</v>
       </c>
       <c r="K15" t="n">
-        <v>272.8356344078389</v>
+        <v>272.8356344078388</v>
       </c>
       <c r="L15" t="n">
-        <v>366.8611804698934</v>
+        <v>366.8611804698933</v>
       </c>
       <c r="M15" t="n">
-        <v>428.10969388437</v>
+        <v>428.1096938843699</v>
       </c>
       <c r="N15" t="n">
         <v>439.4404836013373</v>
       </c>
       <c r="O15" t="n">
-        <v>402.0021908282053</v>
+        <v>402.0021908282052</v>
       </c>
       <c r="P15" t="n">
-        <v>322.6421992788247</v>
+        <v>322.6421992788246</v>
       </c>
       <c r="Q15" t="n">
-        <v>215.6777658094289</v>
+        <v>215.6777658094288</v>
       </c>
       <c r="R15" t="n">
         <v>104.9042898844927</v>
@@ -32105,7 +32105,7 @@
         <v>31.38384202181592</v>
       </c>
       <c r="T15" t="n">
-        <v>6.810330771676232</v>
+        <v>6.81033077167623</v>
       </c>
       <c r="U15" t="n">
         <v>0.1111588265235512</v>
@@ -32151,10 +32151,10 @@
         <v>12.59411281753389</v>
       </c>
       <c r="I16" t="n">
-        <v>42.59849202495101</v>
+        <v>42.598492024951</v>
       </c>
       <c r="J16" t="n">
-        <v>100.1476639897352</v>
+        <v>100.1476639897351</v>
       </c>
       <c r="K16" t="n">
         <v>164.5733760818844</v>
@@ -32163,10 +32163,10 @@
         <v>210.5972607545492</v>
       </c>
       <c r="M16" t="n">
-        <v>222.0452835508555</v>
+        <v>222.0452835508554</v>
       </c>
       <c r="N16" t="n">
-        <v>216.7655430036278</v>
+        <v>216.7655430036277</v>
       </c>
       <c r="O16" t="n">
         <v>200.2180634836573</v>
@@ -32178,16 +32178,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R16" t="n">
-        <v>63.6916993819249</v>
+        <v>63.69169938192489</v>
       </c>
       <c r="S16" t="n">
-        <v>24.68600641228266</v>
+        <v>24.68600641228265</v>
       </c>
       <c r="T16" t="n">
-        <v>6.052385505358815</v>
+        <v>6.052385505358814</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07726449581309137</v>
+        <v>0.07726449581309136</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,10 +32230,10 @@
         <v>32.34062719095147</v>
       </c>
       <c r="I17" t="n">
-        <v>121.7441259396224</v>
+        <v>121.7441259396223</v>
       </c>
       <c r="J17" t="n">
-        <v>268.0210235125614</v>
+        <v>268.0210235125613</v>
       </c>
       <c r="K17" t="n">
         <v>401.694036962382</v>
@@ -32245,13 +32245,13 @@
         <v>554.4959017935466</v>
       </c>
       <c r="N17" t="n">
-        <v>563.4682251921837</v>
+        <v>563.4682251921836</v>
       </c>
       <c r="O17" t="n">
-        <v>532.0670669712611</v>
+        <v>532.0670669712609</v>
       </c>
       <c r="P17" t="n">
-        <v>454.1069318533199</v>
+        <v>454.1069318533198</v>
       </c>
       <c r="Q17" t="n">
         <v>341.0153940746356</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.689614163157978</v>
+        <v>1.689614163157977</v>
       </c>
       <c r="H18" t="n">
         <v>16.31811573365731</v>
       </c>
       <c r="I18" t="n">
-        <v>58.17311921399178</v>
+        <v>58.17311921399177</v>
       </c>
       <c r="J18" t="n">
         <v>159.6314854762544</v>
       </c>
       <c r="K18" t="n">
-        <v>272.8356344078389</v>
+        <v>272.8356344078388</v>
       </c>
       <c r="L18" t="n">
-        <v>366.8611804698934</v>
+        <v>366.8611804698933</v>
       </c>
       <c r="M18" t="n">
-        <v>428.10969388437</v>
+        <v>428.1096938843699</v>
       </c>
       <c r="N18" t="n">
         <v>439.4404836013373</v>
       </c>
       <c r="O18" t="n">
-        <v>402.0021908282053</v>
+        <v>402.0021908282052</v>
       </c>
       <c r="P18" t="n">
-        <v>322.6421992788247</v>
+        <v>322.6421992788246</v>
       </c>
       <c r="Q18" t="n">
-        <v>215.6777658094289</v>
+        <v>215.6777658094288</v>
       </c>
       <c r="R18" t="n">
         <v>104.9042898844927</v>
@@ -32342,7 +32342,7 @@
         <v>31.38384202181592</v>
       </c>
       <c r="T18" t="n">
-        <v>6.810330771676232</v>
+        <v>6.81033077167623</v>
       </c>
       <c r="U18" t="n">
         <v>0.1111588265235512</v>
@@ -32388,10 +32388,10 @@
         <v>12.59411281753389</v>
       </c>
       <c r="I19" t="n">
-        <v>42.59849202495101</v>
+        <v>42.598492024951</v>
       </c>
       <c r="J19" t="n">
-        <v>100.1476639897352</v>
+        <v>100.1476639897351</v>
       </c>
       <c r="K19" t="n">
         <v>164.5733760818844</v>
@@ -32400,10 +32400,10 @@
         <v>210.5972607545492</v>
       </c>
       <c r="M19" t="n">
-        <v>222.0452835508555</v>
+        <v>222.0452835508554</v>
       </c>
       <c r="N19" t="n">
-        <v>216.7655430036278</v>
+        <v>216.7655430036277</v>
       </c>
       <c r="O19" t="n">
         <v>200.2180634836573</v>
@@ -32415,16 +32415,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R19" t="n">
-        <v>63.6916993819249</v>
+        <v>63.69169938192489</v>
       </c>
       <c r="S19" t="n">
-        <v>24.68600641228266</v>
+        <v>24.68600641228265</v>
       </c>
       <c r="T19" t="n">
-        <v>6.052385505358815</v>
+        <v>6.052385505358814</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07726449581309137</v>
+        <v>0.07726449581309136</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,10 +32467,10 @@
         <v>32.34062719095147</v>
       </c>
       <c r="I20" t="n">
-        <v>121.7441259396224</v>
+        <v>121.7441259396223</v>
       </c>
       <c r="J20" t="n">
-        <v>268.0210235125614</v>
+        <v>268.0210235125613</v>
       </c>
       <c r="K20" t="n">
         <v>401.694036962382</v>
@@ -32482,13 +32482,13 @@
         <v>554.4959017935466</v>
       </c>
       <c r="N20" t="n">
-        <v>563.4682251921837</v>
+        <v>563.4682251921836</v>
       </c>
       <c r="O20" t="n">
-        <v>532.0670669712611</v>
+        <v>532.0670669712609</v>
       </c>
       <c r="P20" t="n">
-        <v>454.1069318533199</v>
+        <v>454.1069318533198</v>
       </c>
       <c r="Q20" t="n">
         <v>341.0153940746356</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.689614163157978</v>
+        <v>1.689614163157977</v>
       </c>
       <c r="H21" t="n">
         <v>16.31811573365731</v>
       </c>
       <c r="I21" t="n">
-        <v>58.17311921399178</v>
+        <v>58.17311921399177</v>
       </c>
       <c r="J21" t="n">
         <v>159.6314854762544</v>
       </c>
       <c r="K21" t="n">
-        <v>272.8356344078389</v>
+        <v>272.8356344078388</v>
       </c>
       <c r="L21" t="n">
-        <v>366.8611804698934</v>
+        <v>366.8611804698933</v>
       </c>
       <c r="M21" t="n">
-        <v>428.10969388437</v>
+        <v>428.1096938843699</v>
       </c>
       <c r="N21" t="n">
         <v>439.4404836013373</v>
       </c>
       <c r="O21" t="n">
-        <v>402.0021908282053</v>
+        <v>402.0021908282052</v>
       </c>
       <c r="P21" t="n">
-        <v>322.6421992788247</v>
+        <v>322.6421992788246</v>
       </c>
       <c r="Q21" t="n">
-        <v>215.6777658094289</v>
+        <v>215.6777658094288</v>
       </c>
       <c r="R21" t="n">
         <v>104.9042898844927</v>
@@ -32579,7 +32579,7 @@
         <v>31.38384202181592</v>
       </c>
       <c r="T21" t="n">
-        <v>6.810330771676232</v>
+        <v>6.81033077167623</v>
       </c>
       <c r="U21" t="n">
         <v>0.1111588265235512</v>
@@ -32625,10 +32625,10 @@
         <v>12.59411281753389</v>
       </c>
       <c r="I22" t="n">
-        <v>42.59849202495101</v>
+        <v>42.598492024951</v>
       </c>
       <c r="J22" t="n">
-        <v>100.1476639897352</v>
+        <v>100.1476639897351</v>
       </c>
       <c r="K22" t="n">
         <v>164.5733760818844</v>
@@ -32637,10 +32637,10 @@
         <v>210.5972607545492</v>
       </c>
       <c r="M22" t="n">
-        <v>222.0452835508555</v>
+        <v>222.0452835508554</v>
       </c>
       <c r="N22" t="n">
-        <v>216.7655430036278</v>
+        <v>216.7655430036277</v>
       </c>
       <c r="O22" t="n">
         <v>200.2180634836573</v>
@@ -32652,16 +32652,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R22" t="n">
-        <v>63.6916993819249</v>
+        <v>63.69169938192489</v>
       </c>
       <c r="S22" t="n">
-        <v>24.68600641228266</v>
+        <v>24.68600641228265</v>
       </c>
       <c r="T22" t="n">
-        <v>6.052385505358815</v>
+        <v>6.052385505358814</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07726449581309137</v>
+        <v>0.07726449581309136</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,10 +32704,10 @@
         <v>32.34062719095147</v>
       </c>
       <c r="I23" t="n">
-        <v>121.7441259396224</v>
+        <v>121.7441259396223</v>
       </c>
       <c r="J23" t="n">
-        <v>268.0210235125614</v>
+        <v>268.0210235125613</v>
       </c>
       <c r="K23" t="n">
         <v>401.694036962382</v>
@@ -32719,13 +32719,13 @@
         <v>554.4959017935466</v>
       </c>
       <c r="N23" t="n">
-        <v>563.4682251921837</v>
+        <v>563.4682251921836</v>
       </c>
       <c r="O23" t="n">
-        <v>532.0670669712611</v>
+        <v>532.0670669712609</v>
       </c>
       <c r="P23" t="n">
-        <v>454.1069318533199</v>
+        <v>454.1069318533198</v>
       </c>
       <c r="Q23" t="n">
         <v>341.0153940746356</v>
@@ -32777,37 +32777,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.689614163157978</v>
+        <v>1.689614163157977</v>
       </c>
       <c r="H24" t="n">
         <v>16.31811573365731</v>
       </c>
       <c r="I24" t="n">
-        <v>58.17311921399178</v>
+        <v>58.17311921399177</v>
       </c>
       <c r="J24" t="n">
         <v>159.6314854762544</v>
       </c>
       <c r="K24" t="n">
-        <v>272.8356344078389</v>
+        <v>272.8356344078388</v>
       </c>
       <c r="L24" t="n">
-        <v>366.8611804698934</v>
+        <v>366.8611804698933</v>
       </c>
       <c r="M24" t="n">
-        <v>428.10969388437</v>
+        <v>428.1096938843699</v>
       </c>
       <c r="N24" t="n">
         <v>439.4404836013373</v>
       </c>
       <c r="O24" t="n">
-        <v>402.0021908282053</v>
+        <v>402.0021908282052</v>
       </c>
       <c r="P24" t="n">
-        <v>322.6421992788247</v>
+        <v>322.6421992788246</v>
       </c>
       <c r="Q24" t="n">
-        <v>215.6777658094289</v>
+        <v>215.6777658094288</v>
       </c>
       <c r="R24" t="n">
         <v>104.9042898844927</v>
@@ -32816,7 +32816,7 @@
         <v>31.38384202181592</v>
       </c>
       <c r="T24" t="n">
-        <v>6.810330771676232</v>
+        <v>6.81033077167623</v>
       </c>
       <c r="U24" t="n">
         <v>0.1111588265235512</v>
@@ -32862,10 +32862,10 @@
         <v>12.59411281753389</v>
       </c>
       <c r="I25" t="n">
-        <v>42.59849202495101</v>
+        <v>42.598492024951</v>
       </c>
       <c r="J25" t="n">
-        <v>100.1476639897352</v>
+        <v>100.1476639897351</v>
       </c>
       <c r="K25" t="n">
         <v>164.5733760818844</v>
@@ -32874,10 +32874,10 @@
         <v>210.5972607545492</v>
       </c>
       <c r="M25" t="n">
-        <v>222.0452835508555</v>
+        <v>222.0452835508554</v>
       </c>
       <c r="N25" t="n">
-        <v>216.7655430036278</v>
+        <v>216.7655430036277</v>
       </c>
       <c r="O25" t="n">
         <v>200.2180634836573</v>
@@ -32889,16 +32889,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R25" t="n">
-        <v>63.6916993819249</v>
+        <v>63.69169938192489</v>
       </c>
       <c r="S25" t="n">
-        <v>24.68600641228266</v>
+        <v>24.68600641228265</v>
       </c>
       <c r="T25" t="n">
-        <v>6.052385505358815</v>
+        <v>6.052385505358814</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07726449581309137</v>
+        <v>0.07726449581309136</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,10 +32941,10 @@
         <v>32.34062719095147</v>
       </c>
       <c r="I26" t="n">
-        <v>121.7441259396224</v>
+        <v>121.7441259396223</v>
       </c>
       <c r="J26" t="n">
-        <v>268.0210235125614</v>
+        <v>268.0210235125613</v>
       </c>
       <c r="K26" t="n">
         <v>401.694036962382</v>
@@ -32956,13 +32956,13 @@
         <v>554.4959017935466</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4682251921837</v>
+        <v>563.4682251921836</v>
       </c>
       <c r="O26" t="n">
-        <v>532.0670669712611</v>
+        <v>532.0670669712609</v>
       </c>
       <c r="P26" t="n">
-        <v>454.1069318533199</v>
+        <v>454.1069318533198</v>
       </c>
       <c r="Q26" t="n">
         <v>341.0153940746356</v>
@@ -33014,37 +33014,37 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.689614163157978</v>
+        <v>1.689614163157977</v>
       </c>
       <c r="H27" t="n">
         <v>16.31811573365731</v>
       </c>
       <c r="I27" t="n">
-        <v>58.17311921399178</v>
+        <v>58.17311921399177</v>
       </c>
       <c r="J27" t="n">
         <v>159.6314854762544</v>
       </c>
       <c r="K27" t="n">
-        <v>272.8356344078389</v>
+        <v>272.8356344078388</v>
       </c>
       <c r="L27" t="n">
-        <v>366.8611804698934</v>
+        <v>366.8611804698933</v>
       </c>
       <c r="M27" t="n">
-        <v>428.10969388437</v>
+        <v>428.1096938843699</v>
       </c>
       <c r="N27" t="n">
         <v>439.4404836013373</v>
       </c>
       <c r="O27" t="n">
-        <v>402.0021908282053</v>
+        <v>402.0021908282052</v>
       </c>
       <c r="P27" t="n">
-        <v>322.6421992788247</v>
+        <v>322.6421992788246</v>
       </c>
       <c r="Q27" t="n">
-        <v>215.6777658094289</v>
+        <v>215.6777658094288</v>
       </c>
       <c r="R27" t="n">
         <v>104.9042898844927</v>
@@ -33053,7 +33053,7 @@
         <v>31.38384202181592</v>
       </c>
       <c r="T27" t="n">
-        <v>6.810330771676232</v>
+        <v>6.81033077167623</v>
       </c>
       <c r="U27" t="n">
         <v>0.1111588265235512</v>
@@ -33099,10 +33099,10 @@
         <v>12.59411281753389</v>
       </c>
       <c r="I28" t="n">
-        <v>42.59849202495101</v>
+        <v>42.598492024951</v>
       </c>
       <c r="J28" t="n">
-        <v>100.1476639897352</v>
+        <v>100.1476639897351</v>
       </c>
       <c r="K28" t="n">
         <v>164.5733760818844</v>
@@ -33111,10 +33111,10 @@
         <v>210.5972607545492</v>
       </c>
       <c r="M28" t="n">
-        <v>222.0452835508555</v>
+        <v>222.0452835508554</v>
       </c>
       <c r="N28" t="n">
-        <v>216.7655430036278</v>
+        <v>216.7655430036277</v>
       </c>
       <c r="O28" t="n">
         <v>200.2180634836573</v>
@@ -33126,16 +33126,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R28" t="n">
-        <v>63.6916993819249</v>
+        <v>63.69169938192489</v>
       </c>
       <c r="S28" t="n">
-        <v>24.68600641228266</v>
+        <v>24.68600641228265</v>
       </c>
       <c r="T28" t="n">
-        <v>6.052385505358815</v>
+        <v>6.052385505358814</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07726449581309137</v>
+        <v>0.07726449581309136</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,10 +33178,10 @@
         <v>32.34062719095147</v>
       </c>
       <c r="I29" t="n">
-        <v>121.7441259396224</v>
+        <v>121.7441259396223</v>
       </c>
       <c r="J29" t="n">
-        <v>268.0210235125614</v>
+        <v>268.0210235125613</v>
       </c>
       <c r="K29" t="n">
         <v>401.694036962382</v>
@@ -33193,13 +33193,13 @@
         <v>554.4959017935466</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4682251921837</v>
+        <v>563.4682251921836</v>
       </c>
       <c r="O29" t="n">
-        <v>532.0670669712611</v>
+        <v>532.0670669712609</v>
       </c>
       <c r="P29" t="n">
-        <v>454.1069318533199</v>
+        <v>454.1069318533198</v>
       </c>
       <c r="Q29" t="n">
         <v>341.0153940746356</v>
@@ -33251,37 +33251,37 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.689614163157978</v>
+        <v>1.689614163157977</v>
       </c>
       <c r="H30" t="n">
         <v>16.31811573365731</v>
       </c>
       <c r="I30" t="n">
-        <v>58.17311921399178</v>
+        <v>58.17311921399177</v>
       </c>
       <c r="J30" t="n">
         <v>159.6314854762544</v>
       </c>
       <c r="K30" t="n">
-        <v>272.8356344078389</v>
+        <v>272.8356344078388</v>
       </c>
       <c r="L30" t="n">
-        <v>366.8611804698934</v>
+        <v>366.8611804698933</v>
       </c>
       <c r="M30" t="n">
-        <v>428.10969388437</v>
+        <v>428.1096938843699</v>
       </c>
       <c r="N30" t="n">
         <v>439.4404836013373</v>
       </c>
       <c r="O30" t="n">
-        <v>402.0021908282053</v>
+        <v>402.0021908282052</v>
       </c>
       <c r="P30" t="n">
-        <v>322.6421992788247</v>
+        <v>322.6421992788246</v>
       </c>
       <c r="Q30" t="n">
-        <v>215.6777658094289</v>
+        <v>215.6777658094288</v>
       </c>
       <c r="R30" t="n">
         <v>104.9042898844927</v>
@@ -33290,7 +33290,7 @@
         <v>31.38384202181592</v>
       </c>
       <c r="T30" t="n">
-        <v>6.810330771676232</v>
+        <v>6.81033077167623</v>
       </c>
       <c r="U30" t="n">
         <v>0.1111588265235512</v>
@@ -33336,10 +33336,10 @@
         <v>12.59411281753389</v>
       </c>
       <c r="I31" t="n">
-        <v>42.59849202495101</v>
+        <v>42.598492024951</v>
       </c>
       <c r="J31" t="n">
-        <v>100.1476639897352</v>
+        <v>100.1476639897351</v>
       </c>
       <c r="K31" t="n">
         <v>164.5733760818844</v>
@@ -33348,10 +33348,10 @@
         <v>210.5972607545492</v>
       </c>
       <c r="M31" t="n">
-        <v>222.0452835508555</v>
+        <v>222.0452835508554</v>
       </c>
       <c r="N31" t="n">
-        <v>216.7655430036278</v>
+        <v>216.7655430036277</v>
       </c>
       <c r="O31" t="n">
         <v>200.2180634836573</v>
@@ -33363,16 +33363,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R31" t="n">
-        <v>63.6916993819249</v>
+        <v>63.69169938192489</v>
       </c>
       <c r="S31" t="n">
-        <v>24.68600641228266</v>
+        <v>24.68600641228265</v>
       </c>
       <c r="T31" t="n">
-        <v>6.052385505358815</v>
+        <v>6.052385505358814</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07726449581309137</v>
+        <v>0.07726449581309136</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,10 +33415,10 @@
         <v>32.34062719095147</v>
       </c>
       <c r="I32" t="n">
-        <v>121.7441259396224</v>
+        <v>121.7441259396223</v>
       </c>
       <c r="J32" t="n">
-        <v>268.0210235125614</v>
+        <v>268.0210235125613</v>
       </c>
       <c r="K32" t="n">
         <v>401.694036962382</v>
@@ -33430,13 +33430,13 @@
         <v>554.4959017935466</v>
       </c>
       <c r="N32" t="n">
-        <v>563.4682251921837</v>
+        <v>563.4682251921836</v>
       </c>
       <c r="O32" t="n">
-        <v>532.0670669712611</v>
+        <v>532.0670669712609</v>
       </c>
       <c r="P32" t="n">
-        <v>454.1069318533199</v>
+        <v>454.1069318533198</v>
       </c>
       <c r="Q32" t="n">
         <v>341.0153940746356</v>
@@ -33488,37 +33488,37 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.689614163157978</v>
+        <v>1.689614163157977</v>
       </c>
       <c r="H33" t="n">
         <v>16.31811573365731</v>
       </c>
       <c r="I33" t="n">
-        <v>58.17311921399178</v>
+        <v>58.17311921399177</v>
       </c>
       <c r="J33" t="n">
         <v>159.6314854762544</v>
       </c>
       <c r="K33" t="n">
-        <v>272.8356344078389</v>
+        <v>272.8356344078388</v>
       </c>
       <c r="L33" t="n">
-        <v>366.8611804698934</v>
+        <v>366.8611804698933</v>
       </c>
       <c r="M33" t="n">
-        <v>428.10969388437</v>
+        <v>428.1096938843699</v>
       </c>
       <c r="N33" t="n">
         <v>439.4404836013373</v>
       </c>
       <c r="O33" t="n">
-        <v>402.0021908282053</v>
+        <v>402.0021908282052</v>
       </c>
       <c r="P33" t="n">
-        <v>322.6421992788247</v>
+        <v>322.6421992788246</v>
       </c>
       <c r="Q33" t="n">
-        <v>215.6777658094289</v>
+        <v>215.6777658094288</v>
       </c>
       <c r="R33" t="n">
         <v>104.9042898844927</v>
@@ -33527,7 +33527,7 @@
         <v>31.38384202181592</v>
       </c>
       <c r="T33" t="n">
-        <v>6.810330771676232</v>
+        <v>6.81033077167623</v>
       </c>
       <c r="U33" t="n">
         <v>0.1111588265235512</v>
@@ -33573,10 +33573,10 @@
         <v>12.59411281753389</v>
       </c>
       <c r="I34" t="n">
-        <v>42.59849202495101</v>
+        <v>42.598492024951</v>
       </c>
       <c r="J34" t="n">
-        <v>100.1476639897352</v>
+        <v>100.1476639897351</v>
       </c>
       <c r="K34" t="n">
         <v>164.5733760818844</v>
@@ -33585,10 +33585,10 @@
         <v>210.5972607545492</v>
       </c>
       <c r="M34" t="n">
-        <v>222.0452835508555</v>
+        <v>222.0452835508554</v>
       </c>
       <c r="N34" t="n">
-        <v>216.7655430036278</v>
+        <v>216.7655430036277</v>
       </c>
       <c r="O34" t="n">
         <v>200.2180634836573</v>
@@ -33600,16 +33600,16 @@
         <v>118.613878489064</v>
       </c>
       <c r="R34" t="n">
-        <v>63.6916993819249</v>
+        <v>63.69169938192489</v>
       </c>
       <c r="S34" t="n">
-        <v>24.68600641228266</v>
+        <v>24.68600641228265</v>
       </c>
       <c r="T34" t="n">
-        <v>6.052385505358815</v>
+        <v>6.052385505358814</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07726449581309137</v>
+        <v>0.07726449581309136</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34784,16 +34784,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35027,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>86.9751189858751</v>
       </c>
       <c r="K11" t="n">
-        <v>181.6041859174016</v>
+        <v>181.6041859174015</v>
       </c>
       <c r="L11" t="n">
+        <v>627.6041762129378</v>
+      </c>
+      <c r="M11" t="n">
+        <v>324.1496685662739</v>
+      </c>
+      <c r="N11" t="n">
         <v>646.1634167549647</v>
       </c>
-      <c r="M11" t="n">
-        <v>324.149668566274</v>
-      </c>
-      <c r="N11" t="n">
-        <v>334.0551615955929</v>
-      </c>
       <c r="O11" t="n">
-        <v>595.517870166919</v>
+        <v>301.9688555495743</v>
       </c>
       <c r="P11" t="n">
         <v>222.8739360980504</v>
       </c>
       <c r="Q11" t="n">
-        <v>118.7097042001862</v>
+        <v>118.7097042001861</v>
       </c>
       <c r="R11" t="n">
-        <v>48.49699193641476</v>
+        <v>48.49699193641473</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>32.7938588095877</v>
+        <v>158.8848941499965</v>
       </c>
       <c r="K12" t="n">
         <v>134.9941954334799</v>
       </c>
       <c r="L12" t="n">
-        <v>228.3068006900192</v>
+        <v>599.1471459934784</v>
       </c>
       <c r="M12" t="n">
-        <v>620.6160030559348</v>
+        <v>442.147391052004</v>
       </c>
       <c r="N12" t="n">
-        <v>308.0987715180041</v>
+        <v>308.098771518004</v>
       </c>
       <c r="O12" t="n">
         <v>646.1634167549647</v>
       </c>
       <c r="P12" t="n">
-        <v>507.1305605044317</v>
+        <v>188.6677918644945</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.69599172340739</v>
+        <v>75.69599172340736</v>
       </c>
       <c r="R12" t="n">
-        <v>4.746455731849593</v>
+        <v>4.746455731849579</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.78848387306239</v>
+        <v>6.788483873062376</v>
       </c>
       <c r="K13" t="n">
-        <v>142.3038842560016</v>
+        <v>142.3038842560015</v>
       </c>
       <c r="L13" t="n">
-        <v>238.1872860148654</v>
+        <v>238.1872860148653</v>
       </c>
       <c r="M13" t="n">
-        <v>261.6291605126961</v>
+        <v>261.629160512696</v>
       </c>
       <c r="N13" t="n">
-        <v>260.8977153828564</v>
+        <v>260.8977153828563</v>
       </c>
       <c r="O13" t="n">
         <v>224.803191397697</v>
@@ -35586,7 +35586,7 @@
         <v>168.5997013144545</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.45183523736961</v>
+        <v>32.45183523736959</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>86.9751189858751</v>
+        <v>86.97511898587504</v>
       </c>
       <c r="K14" t="n">
-        <v>505.7495984885662</v>
+        <v>181.6041859174014</v>
       </c>
       <c r="L14" t="n">
         <v>646.1634167549647</v>
@@ -35656,13 +35656,13 @@
         <v>324.1496685662739</v>
       </c>
       <c r="N14" t="n">
-        <v>334.0551615955928</v>
+        <v>334.0551615955927</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9688555495743</v>
+        <v>644.0148621033343</v>
       </c>
       <c r="P14" t="n">
-        <v>240.7745300806452</v>
+        <v>222.8739360980503</v>
       </c>
       <c r="Q14" t="n">
         <v>118.7097042001861</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>32.7938588095877</v>
+        <v>158.8848941499965</v>
       </c>
       <c r="K15" t="n">
-        <v>134.9941954334799</v>
+        <v>134.9941954334798</v>
       </c>
       <c r="L15" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900191</v>
       </c>
       <c r="M15" t="n">
+        <v>474.9230911185026</v>
+      </c>
+      <c r="N15" t="n">
         <v>646.1634167549647</v>
       </c>
-      <c r="N15" t="n">
-        <v>621.6777072585051</v>
-      </c>
       <c r="O15" t="n">
-        <v>259.4059463837609</v>
+        <v>646.1634167549647</v>
       </c>
       <c r="P15" t="n">
-        <v>188.6677918644945</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.69599172340736</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4.746455731849565</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.788483873062376</v>
+        <v>6.788483873062361</v>
       </c>
       <c r="K16" t="n">
         <v>142.3038842560015</v>
@@ -35817,13 +35817,13 @@
         <v>260.8977153828563</v>
       </c>
       <c r="O16" t="n">
-        <v>224.803191397697</v>
+        <v>224.8031913976969</v>
       </c>
       <c r="P16" t="n">
         <v>168.5997013144545</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.45183523736959</v>
+        <v>32.45183523736958</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.9751189858751</v>
+        <v>86.97511898587504</v>
       </c>
       <c r="K17" t="n">
-        <v>181.6041859174015</v>
+        <v>181.6041859174014</v>
       </c>
       <c r="L17" t="n">
-        <v>646.1634167549647</v>
+        <v>627.6041762129381</v>
       </c>
       <c r="M17" t="n">
         <v>324.1496685662739</v>
       </c>
       <c r="N17" t="n">
-        <v>334.0551615955928</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="O17" t="n">
-        <v>644.0148621033341</v>
+        <v>301.9688555495742</v>
       </c>
       <c r="P17" t="n">
-        <v>222.8739360980504</v>
+        <v>222.8739360980503</v>
       </c>
       <c r="Q17" t="n">
         <v>118.7097042001861</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>48.4969919364147</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>32.7938588095877</v>
+        <v>158.8848941499965</v>
       </c>
       <c r="K18" t="n">
-        <v>134.9941954334799</v>
+        <v>134.9941954334798</v>
       </c>
       <c r="L18" t="n">
-        <v>228.3068006900192</v>
+        <v>228.3068006900191</v>
       </c>
       <c r="M18" t="n">
-        <v>646.1634167549647</v>
+        <v>479.669546850352</v>
       </c>
       <c r="N18" t="n">
-        <v>605.7605821907605</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="O18" t="n">
-        <v>646.1634167549647</v>
+        <v>646.1634167549648</v>
       </c>
       <c r="P18" t="n">
-        <v>188.6677918644945</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.69599172340736</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.788483873062376</v>
+        <v>6.788483873062361</v>
       </c>
       <c r="K19" t="n">
         <v>142.3038842560015</v>
@@ -36054,13 +36054,13 @@
         <v>260.8977153828563</v>
       </c>
       <c r="O19" t="n">
-        <v>224.803191397697</v>
+        <v>224.8031913976969</v>
       </c>
       <c r="P19" t="n">
         <v>168.5997013144545</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.45183523736959</v>
+        <v>32.45183523736958</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.0717341579489</v>
+        <v>86.97511898587504</v>
       </c>
       <c r="K20" t="n">
-        <v>209.7723046899399</v>
+        <v>378.868919862013</v>
       </c>
       <c r="L20" t="n">
-        <v>680.2317726487973</v>
+        <v>680.2317726487972</v>
       </c>
       <c r="M20" t="n">
         <v>773.6632020591064</v>
       </c>
       <c r="N20" t="n">
-        <v>771.4020860075769</v>
+        <v>771.4020860075768</v>
       </c>
       <c r="O20" t="n">
-        <v>682.7690368123197</v>
+        <v>682.7690368123195</v>
       </c>
       <c r="P20" t="n">
-        <v>222.8739360980504</v>
+        <v>222.8739360980503</v>
       </c>
       <c r="Q20" t="n">
         <v>118.7097042001861</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>32.7938588095877</v>
+        <v>32.79385880958768</v>
       </c>
       <c r="K21" t="n">
-        <v>134.9941954334799</v>
+        <v>134.9941954334798</v>
       </c>
       <c r="L21" t="n">
-        <v>228.3068006900192</v>
+        <v>228.3068006900191</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6807237123516</v>
+        <v>751.6807237123514</v>
       </c>
       <c r="N21" t="n">
-        <v>787.4411458615575</v>
+        <v>493.1384263278478</v>
       </c>
       <c r="O21" t="n">
-        <v>358.9655461267803</v>
+        <v>653.2682656604903</v>
       </c>
       <c r="P21" t="n">
-        <v>188.6677918644945</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.69599172340736</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.788483873062376</v>
+        <v>6.788483873062361</v>
       </c>
       <c r="K22" t="n">
         <v>142.3038842560015</v>
@@ -36291,13 +36291,13 @@
         <v>260.8977153828563</v>
       </c>
       <c r="O22" t="n">
-        <v>224.803191397697</v>
+        <v>224.8031913976969</v>
       </c>
       <c r="P22" t="n">
         <v>168.5997013144545</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.45183523736959</v>
+        <v>32.45183523736958</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.0717341579489</v>
+        <v>256.0717341579488</v>
       </c>
       <c r="K23" t="n">
         <v>505.7495984885662</v>
       </c>
       <c r="L23" t="n">
-        <v>680.2317726487973</v>
+        <v>680.2317726487972</v>
       </c>
       <c r="M23" t="n">
         <v>773.6632020591064</v>
       </c>
       <c r="N23" t="n">
-        <v>771.4020860075769</v>
+        <v>771.4020860075768</v>
       </c>
       <c r="O23" t="n">
-        <v>682.7690368123197</v>
+        <v>682.7690368123195</v>
       </c>
       <c r="P23" t="n">
-        <v>544.6726442695331</v>
+        <v>544.672644269533</v>
       </c>
       <c r="Q23" t="n">
         <v>331.0246948600908</v>
       </c>
       <c r="R23" t="n">
-        <v>48.49699193641473</v>
+        <v>48.4969919364147</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>32.7938588095877</v>
+        <v>32.79385880958768</v>
       </c>
       <c r="K24" t="n">
-        <v>134.9941954334799</v>
+        <v>134.9941954334798</v>
       </c>
       <c r="L24" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900191</v>
       </c>
       <c r="M24" t="n">
-        <v>565.8800332187361</v>
+        <v>751.6807237123514</v>
       </c>
       <c r="N24" t="n">
-        <v>308.098771518004</v>
+        <v>787.4411458615575</v>
       </c>
       <c r="O24" t="n">
-        <v>653.2682656604904</v>
+        <v>358.9655461267822</v>
       </c>
       <c r="P24" t="n">
-        <v>188.6677918644945</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.69599172340736</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.788483873062376</v>
+        <v>6.788483873062361</v>
       </c>
       <c r="K25" t="n">
         <v>142.3038842560015</v>
@@ -36528,13 +36528,13 @@
         <v>260.8977153828563</v>
       </c>
       <c r="O25" t="n">
-        <v>224.803191397697</v>
+        <v>224.8031913976969</v>
       </c>
       <c r="P25" t="n">
         <v>168.5997013144545</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.45183523736959</v>
+        <v>32.45183523736958</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.0717341579489</v>
+        <v>256.0717341579488</v>
       </c>
       <c r="K26" t="n">
         <v>505.7495984885662</v>
       </c>
       <c r="L26" t="n">
-        <v>680.2317726487973</v>
+        <v>680.2317726487972</v>
       </c>
       <c r="M26" t="n">
         <v>773.6632020591064</v>
       </c>
       <c r="N26" t="n">
-        <v>771.4020860075769</v>
+        <v>771.4020860075768</v>
       </c>
       <c r="O26" t="n">
-        <v>682.7690368123197</v>
+        <v>682.7690368123195</v>
       </c>
       <c r="P26" t="n">
-        <v>544.6726442695331</v>
+        <v>544.672644269533</v>
       </c>
       <c r="Q26" t="n">
         <v>331.0246948600908</v>
       </c>
       <c r="R26" t="n">
-        <v>48.49699193641473</v>
+        <v>48.4969919364147</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>32.7938588095877</v>
+        <v>32.79385880958768</v>
       </c>
       <c r="K27" t="n">
-        <v>134.9941954334799</v>
+        <v>134.9941954334798</v>
       </c>
       <c r="L27" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900191</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6807237123516</v>
+        <v>457.3780041786419</v>
       </c>
       <c r="N27" t="n">
-        <v>308.098771518004</v>
+        <v>787.4411458615575</v>
       </c>
       <c r="O27" t="n">
-        <v>259.4059463837609</v>
+        <v>653.2682656604903</v>
       </c>
       <c r="P27" t="n">
-        <v>396.7294206476084</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.69599172340736</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.788483873062376</v>
+        <v>6.788483873062361</v>
       </c>
       <c r="K28" t="n">
         <v>142.3038842560015</v>
@@ -36765,13 +36765,13 @@
         <v>260.8977153828563</v>
       </c>
       <c r="O28" t="n">
-        <v>224.803191397697</v>
+        <v>224.8031913976969</v>
       </c>
       <c r="P28" t="n">
         <v>168.5997013144545</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.45183523736959</v>
+        <v>32.45183523736958</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.0717341579489</v>
+        <v>256.0717341579488</v>
       </c>
       <c r="K29" t="n">
         <v>505.7495984885662</v>
       </c>
       <c r="L29" t="n">
-        <v>680.2317726487973</v>
+        <v>680.2317726487972</v>
       </c>
       <c r="M29" t="n">
         <v>773.6632020591064</v>
       </c>
       <c r="N29" t="n">
-        <v>771.4020860075769</v>
+        <v>771.4020860075768</v>
       </c>
       <c r="O29" t="n">
-        <v>682.7690368123197</v>
+        <v>682.7690368123195</v>
       </c>
       <c r="P29" t="n">
-        <v>544.6726442695331</v>
+        <v>544.672644269533</v>
       </c>
       <c r="Q29" t="n">
         <v>331.0246948600908</v>
       </c>
       <c r="R29" t="n">
-        <v>48.49699193641473</v>
+        <v>48.4969919364147</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>32.7938588095877</v>
+        <v>32.79385880958768</v>
       </c>
       <c r="K30" t="n">
-        <v>134.9941954334799</v>
+        <v>134.9941954334798</v>
       </c>
       <c r="L30" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900191</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6807237123516</v>
+        <v>457.3780041786418</v>
       </c>
       <c r="N30" t="n">
-        <v>308.098771518004</v>
+        <v>787.4411458615575</v>
       </c>
       <c r="O30" t="n">
-        <v>467.467575166875</v>
+        <v>653.2682656604903</v>
       </c>
       <c r="P30" t="n">
-        <v>188.6677918644945</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.69599172340736</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.788483873062376</v>
+        <v>6.788483873062361</v>
       </c>
       <c r="K31" t="n">
         <v>142.3038842560015</v>
@@ -37002,13 +37002,13 @@
         <v>260.8977153828563</v>
       </c>
       <c r="O31" t="n">
-        <v>224.803191397697</v>
+        <v>224.8031913976969</v>
       </c>
       <c r="P31" t="n">
         <v>168.5997013144545</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.45183523736959</v>
+        <v>32.45183523736958</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.0717341579489</v>
+        <v>256.0717341579488</v>
       </c>
       <c r="K32" t="n">
         <v>505.7495984885662</v>
       </c>
       <c r="L32" t="n">
-        <v>680.2317726487973</v>
+        <v>680.2317726487972</v>
       </c>
       <c r="M32" t="n">
         <v>773.6632020591064</v>
       </c>
       <c r="N32" t="n">
-        <v>771.4020860075769</v>
+        <v>771.4020860075768</v>
       </c>
       <c r="O32" t="n">
-        <v>682.7690368123197</v>
+        <v>682.7690368123195</v>
       </c>
       <c r="P32" t="n">
-        <v>544.6726442695331</v>
+        <v>544.672644269533</v>
       </c>
       <c r="Q32" t="n">
         <v>331.0246948600908</v>
       </c>
       <c r="R32" t="n">
-        <v>48.49699193641473</v>
+        <v>48.4969919364147</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>32.7938588095877</v>
+        <v>32.79385880958768</v>
       </c>
       <c r="K33" t="n">
-        <v>134.9941954334799</v>
+        <v>134.9941954334798</v>
       </c>
       <c r="L33" t="n">
-        <v>599.1471459934784</v>
+        <v>228.3068006900191</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6807237123516</v>
+        <v>751.6807237123514</v>
       </c>
       <c r="N33" t="n">
-        <v>308.098771518004</v>
+        <v>493.138426327848</v>
       </c>
       <c r="O33" t="n">
-        <v>467.467575166875</v>
+        <v>653.2682656604903</v>
       </c>
       <c r="P33" t="n">
-        <v>188.6677918644945</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.69599172340736</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.788483873062376</v>
+        <v>6.788483873062361</v>
       </c>
       <c r="K34" t="n">
         <v>142.3038842560015</v>
@@ -37239,13 +37239,13 @@
         <v>260.8977153828563</v>
       </c>
       <c r="O34" t="n">
-        <v>224.803191397697</v>
+        <v>224.8031913976969</v>
       </c>
       <c r="P34" t="n">
         <v>168.5997013144545</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.45183523736959</v>
+        <v>32.45183523736958</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>86.97511898587504</v>
+        <v>256.0717341579488</v>
       </c>
       <c r="K35" t="n">
         <v>181.6041859174014</v>
       </c>
       <c r="L35" t="n">
-        <v>519.0443012510909</v>
+        <v>262.5705580983469</v>
       </c>
       <c r="M35" t="n">
-        <v>755.0909087624777</v>
+        <v>755.0909087624776</v>
       </c>
       <c r="N35" t="n">
-        <v>755.0909087624777</v>
+        <v>755.0909087624776</v>
       </c>
       <c r="O35" t="n">
         <v>301.9688555495742</v>
       </c>
       <c r="P35" t="n">
-        <v>222.8739360980503</v>
+        <v>310.2510640787203</v>
       </c>
       <c r="Q35" t="n">
         <v>118.7097042001861</v>
@@ -37385,13 +37385,13 @@
         <v>32.79385880958768</v>
       </c>
       <c r="K36" t="n">
-        <v>134.9941954334798</v>
+        <v>399.4594324460584</v>
       </c>
       <c r="L36" t="n">
         <v>599.1471459934783</v>
       </c>
       <c r="M36" t="n">
-        <v>641.279583855529</v>
+        <v>695.2771154828873</v>
       </c>
       <c r="N36" t="n">
         <v>308.098771518004</v>
@@ -37400,7 +37400,7 @@
         <v>259.4059463837608</v>
       </c>
       <c r="P36" t="n">
-        <v>507.1305605044316</v>
+        <v>188.6677918644944</v>
       </c>
       <c r="Q36" t="n">
         <v>75.69599172340733</v>
@@ -37543,10 +37543,10 @@
         <v>256.0717341579488</v>
       </c>
       <c r="K38" t="n">
-        <v>505.7495984885662</v>
+        <v>181.6041859174014</v>
       </c>
       <c r="L38" t="n">
-        <v>392.1625539759683</v>
+        <v>680.2317726487972</v>
       </c>
       <c r="M38" t="n">
         <v>324.1496685662739</v>
@@ -37555,16 +37555,16 @@
         <v>334.0551615955927</v>
       </c>
       <c r="O38" t="n">
-        <v>301.9688555495742</v>
+        <v>682.7690368123195</v>
       </c>
       <c r="P38" t="n">
-        <v>544.672644269533</v>
+        <v>222.8739360980503</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.0246948600908</v>
+        <v>259.6024237307492</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>48.4969919364147</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>32.79385880958768</v>
+        <v>158.8848941499965</v>
       </c>
       <c r="K39" t="n">
         <v>134.9941954334798</v>
@@ -37628,16 +37628,16 @@
         <v>599.1471459934783</v>
       </c>
       <c r="M39" t="n">
-        <v>565.8800332187366</v>
+        <v>285.9756599623516</v>
       </c>
       <c r="N39" t="n">
         <v>308.098771518004</v>
       </c>
       <c r="O39" t="n">
-        <v>653.2682656604903</v>
+        <v>488.6188349365295</v>
       </c>
       <c r="P39" t="n">
-        <v>188.6677918644944</v>
+        <v>507.1305605044316</v>
       </c>
       <c r="Q39" t="n">
         <v>75.69599172340733</v>
@@ -37783,13 +37783,13 @@
         <v>181.6041859174014</v>
       </c>
       <c r="L41" t="n">
-        <v>567.5412931875049</v>
+        <v>519.0443012510899</v>
       </c>
       <c r="M41" t="n">
-        <v>755.0909087624775</v>
+        <v>755.0909087624773</v>
       </c>
       <c r="N41" t="n">
-        <v>755.0909087624775</v>
+        <v>755.0909087624773</v>
       </c>
       <c r="O41" t="n">
         <v>301.9688555495742</v>
@@ -37801,7 +37801,7 @@
         <v>118.7097042001861</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>48.4969919364147</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>32.79385880958768</v>
+        <v>158.8848941499965</v>
       </c>
       <c r="K42" t="n">
-        <v>134.9941954334798</v>
+        <v>399.4594324460584</v>
       </c>
       <c r="L42" t="n">
-        <v>599.1471459934783</v>
+        <v>228.3068006900191</v>
       </c>
       <c r="M42" t="n">
-        <v>565.8800332187366</v>
+        <v>546.1641061692081</v>
       </c>
       <c r="N42" t="n">
         <v>308.098771518004</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>136.9382879680848</v>
+        <v>158.8848941499965</v>
       </c>
       <c r="K45" t="n">
         <v>134.9941954334798</v>
@@ -38102,10 +38102,10 @@
         <v>228.3068006900191</v>
       </c>
       <c r="M45" t="n">
-        <v>285.9756599623516</v>
+        <v>319.3025321360307</v>
       </c>
       <c r="N45" t="n">
-        <v>308.098771518004</v>
+        <v>462.902580898262</v>
       </c>
       <c r="O45" t="n">
         <v>259.4059463837608</v>
@@ -38114,7 +38114,7 @@
         <v>188.6677918644944</v>
       </c>
       <c r="Q45" t="n">
-        <v>285.7732794592564</v>
+        <v>75.69599172340733</v>
       </c>
       <c r="R45" t="n">
         <v>4.746455731849565</v>
